--- a/resources/БАЗА ДАННЫХ/litefinance/excel/Reza_baderlou199.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/Reza_baderlou199.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,7 @@
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="21.6" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="14.4" customWidth="1" min="8" max="8"/>
+    <col width="15.6" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>XAGUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,39 +503,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.27 20:03</t>
+          <t>2023.11.29 14:46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.646</t>
+          <t>2038.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.27 20:21</t>
+          <t>2023.11.29 14:50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24.645</t>
+          <t>2039.75</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>-3,24 USD</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>XAGUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -545,34 +545,34 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.27 19:40</t>
+          <t>2023.11.29 14:05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24.646</t>
+          <t>2040.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.27 20:00</t>
+          <t>2023.11.29 14:34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24.645</t>
+          <t>2040.65</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>0,65 USD</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -587,34 +587,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.27 19:02</t>
+          <t>2023.11.29 13:54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2010.67</t>
+          <t>2041.77</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.27 19:31</t>
+          <t>2023.11.29 14:02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2012.32</t>
+          <t>2040.72</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-17,00 USD</t>
+          <t>5,00 USD</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -629,34 +629,34 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.27 18:49</t>
+          <t>2023.11.29 13:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2010.42</t>
+          <t>2039.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.27 18:59</t>
+          <t>2023.11.29 13:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2010.06</t>
+          <t>2039.6</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3,41 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -671,34 +671,34 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.27 15:40</t>
+          <t>2023.11.29 12:45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2011.69</t>
+          <t>2038.96</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.27 15:42</t>
+          <t>2023.11.29 12:52</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2012.07</t>
+          <t>2039.25</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3,30 USD</t>
+          <t>1,20 USD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -713,34 +713,34 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.27 15:37</t>
+          <t>2023.11.29 10:54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2011.72</t>
+          <t>2039.26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.27 15:38</t>
+          <t>2023.11.29 11:38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2011.97</t>
+          <t>2037.4</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2,00 USD</t>
+          <t>-9,55 USD</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -755,34 +755,34 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.27 15:27</t>
+          <t>2023.11.29 11:09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2011.59</t>
+          <t>2038.52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.27 15:28</t>
+          <t>2023.11.29 11:38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2012.09</t>
+          <t>2037.49</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4,95 USD</t>
+          <t>-5,40 USD</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -797,34 +797,34 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.27 15:09</t>
+          <t>2023.11.29 10:51</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2011.76</t>
+          <t>2038.81</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.27 15:12</t>
+          <t>2023.11.29 10:53</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2011.99</t>
+          <t>2039</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1,80 USD</t>
+          <t>0,56 USD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -839,34 +839,34 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.27 14:57</t>
+          <t>2023.11.29 10:19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2011.62</t>
+          <t>2041.96</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.27 15:01</t>
+          <t>2023.11.29 10:31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2011.92</t>
+          <t>2038.59</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2,75 USD</t>
+          <t>-17,10 USD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -881,34 +881,34 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.27 14:51</t>
+          <t>2023.11.29 10:20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2011.56</t>
+          <t>2041.35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.27 14:52</t>
+          <t>2023.11.29 10:31</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2012.72</t>
+          <t>2038.63</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>11,10 USD</t>
+          <t>-16,62 USD</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -918,39 +918,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.27 14:30</t>
+          <t>2023.11.29 10:21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2014.59</t>
+          <t>2040.25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.27 14:34</t>
+          <t>2023.11.29 10:31</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2015.43</t>
+          <t>2038.58</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-9,79 USD</t>
+          <t>-6,88 USD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -965,39 +965,39 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.27 13:18</t>
+          <t>2023.11.29 10:07</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2013.77</t>
+          <t>2042.36</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.27 13:27</t>
+          <t>2023.11.29 10:12</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2013.02</t>
+          <t>2042.03</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7,70 USD</t>
+          <t>1,96 USD</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1007,81 +1007,81 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.27 12:38</t>
+          <t>2023.11.29 10:01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.72103</t>
+          <t>2043.25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.27 12:41</t>
+          <t>2023.11.29 10:03</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.72071</t>
+          <t>2042.02</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2,08 USD</t>
+          <t>7,08 USD</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.27 11:50</t>
+          <t>2023.11.29 09:49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.72174</t>
+          <t>2041.84</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.27 12:02</t>
+          <t>2023.11.29 09:56</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.72146</t>
+          <t>2042.73</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1,76 USD</t>
+          <t>5,04 USD</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1091,34 +1091,34 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.27 11:28</t>
+          <t>2023.11.29 09:39</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.72171</t>
+          <t>2043.5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.27 11:47</t>
+          <t>2023.11.29 09:44</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.7213</t>
+          <t>2042.56</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2,81 USD</t>
+          <t>5,34 USD</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1128,39 +1128,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.27 09:53</t>
+          <t>2023.11.29 09:25</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2013.58</t>
+          <t>2042.05</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.27 11:17</t>
+          <t>2023.11.29 09:28</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2012.99</t>
+          <t>2042.57</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>5,94 USD</t>
+          <t>1,88 USD</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1175,34 +1175,34 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.27 09:55</t>
+          <t>2023.11.29 09:21</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2013.54</t>
+          <t>2041.95</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.27 11:17</t>
+          <t>2023.11.29 09:24</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2012.97</t>
+          <t>2041.72</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>5,72 USD</t>
+          <t>1,08 USD</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1217,34 +1217,34 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.27 09:24</t>
+          <t>2023.11.29 09:16</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2012.61</t>
+          <t>2042.92</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.27 11:16</t>
+          <t>2023.11.29 09:19</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2012.99</t>
+          <t>2042.41</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-4,30 USD</t>
+          <t>2,76 USD</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1259,34 +1259,34 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.27 08:52</t>
+          <t>2023.11.29 09:15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2010.92</t>
+          <t>2042.53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.27 09:00</t>
+          <t>2023.11.29 09:18</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2011.14</t>
+          <t>2042.36</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-2,97 USD</t>
+          <t>0,72 USD</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1301,39 +1301,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.27 08:19</t>
+          <t>2023.11.29 09:08</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2010.69</t>
+          <t>2043.69</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.27 08:33</t>
+          <t>2023.11.29 09:14</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2010.14</t>
+          <t>2042.43</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>5,00 USD</t>
+          <t>7,26 USD</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1343,39 +1343,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.27 08:02</t>
+          <t>2023.11.29 09:01</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.26211</t>
+          <t>2042.91</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.27 08:07</t>
+          <t>2023.11.29 09:13</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.26212</t>
+          <t>2042.8</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-0,23 USD</t>
+          <t>0,60 USD</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1385,39 +1385,39 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.27 04:47</t>
+          <t>2023.11.29 09:02</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.26019</t>
+          <t>2043.58</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.27 05:16</t>
+          <t>2023.11.29 09:03</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.26018</t>
+          <t>2043.12</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-0,38 USD</t>
+          <t>2,05 USD</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BTCUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1427,39 +1427,39 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.25 12:30</t>
+          <t>2023.11.29 08:53</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>37645.31</t>
+          <t>2042.28</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.25 12:32</t>
+          <t>2023.11.29 08:58</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>37647.9</t>
+          <t>2042.47</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-2,13 USD</t>
+          <t>1,40 USD</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BTCUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1469,34 +1469,34 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.25 12:29</t>
+          <t>2023.11.29 08:52</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>37641.09</t>
+          <t>2042.6</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.25 12:29</t>
+          <t>2023.11.29 08:52</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>37645.3</t>
+          <t>2042.46</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-1,98 USD</t>
+          <t>0,90 USD</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1511,34 +1511,34 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.24 16:09</t>
+          <t>2023.11.29 08:49</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2002.54</t>
+          <t>2042.12</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.24 16:21</t>
+          <t>2023.11.29 08:50</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2001.16</t>
+          <t>2042.26</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>-8,58 USD</t>
+          <t>0,72 USD</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1548,32 +1548,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.24 15:59</t>
+          <t>2023.11.29 08:46</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2001.19</t>
+          <t>2042.01</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.24 16:03</t>
+          <t>2023.11.29 08:47</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2003.47</t>
+          <t>2042.2</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-13,98 USD</t>
+          <t>1,12 USD</t>
         </is>
       </c>
     </row>
@@ -1595,34 +1595,34 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.24 15:57</t>
+          <t>2023.11.29 08:40</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2001.22</t>
+          <t>2042.01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.24 15:58</t>
+          <t>2023.11.29 08:41</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2001.55</t>
+          <t>2041.63</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1,68 USD</t>
+          <t>-2,58 USD</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1632,39 +1632,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.24 15:54</t>
+          <t>2023.11.29 08:31</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2000.81</t>
+          <t>2043.74</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.24 15:55</t>
+          <t>2023.11.29 08:36</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2001.04</t>
+          <t>2042.41</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-1,68 USD</t>
+          <t>-12,42 USD</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1674,39 +1674,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.24 15:47</t>
+          <t>2023.11.29 08:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2000.9</t>
+          <t>2043.44</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.24 15:53</t>
+          <t>2023.11.29 08:31</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2000.56</t>
+          <t>2043.65</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2,03 USD</t>
+          <t>0,96 USD</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1716,39 +1716,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.24 15:45</t>
+          <t>2023.11.29 08:20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2000.37</t>
+          <t>2043.46</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.24 15:46</t>
+          <t>2023.11.29 08:29</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2000.15</t>
+          <t>2042.96</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1,02 USD</t>
+          <t>-5,50 USD</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1758,39 +1758,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.24 15:41</t>
+          <t>2023.11.29 08:17</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2002.58</t>
+          <t>2043.42</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.24 15:43</t>
+          <t>2023.11.29 08:18</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2001.82</t>
+          <t>2043.56</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3,55 USD</t>
+          <t>0,90 USD</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1800,39 +1800,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.24 15:31</t>
+          <t>2023.11.29 08:09</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2001.79</t>
+          <t>2043.76</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.24 15:31</t>
+          <t>2023.11.29 08:13</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2002.78</t>
+          <t>2043.89</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-5,20 USD</t>
+          <t>0,80 USD</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1842,39 +1842,39 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.11.24 15:19</t>
+          <t>2023.11.29 08:06</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2001.09</t>
+          <t>2043.92</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.11.24 15:20</t>
+          <t>2023.11.29 08:08</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2001.23</t>
+          <t>2044.02</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-0,95 USD</t>
+          <t>0,50 USD</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1884,39 +1884,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.24 08:52</t>
+          <t>2023.11.29 08:03</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1993.46</t>
+          <t>2044.54</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.24 09:21</t>
+          <t>2023.11.29 08:03</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1993.67</t>
+          <t>2044.24</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0,80 USD</t>
+          <t>2,50 USD</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1926,44 +1926,44 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.11.23 10:32</t>
+          <t>2023.11.29 07:56</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1993.05</t>
+          <t>2045.21</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.23 14:54</t>
+          <t>2023.11.29 07:58</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1993.08</t>
+          <t>2044.89</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-0,14 USD</t>
+          <t>2,70 USD</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1973,34 +1973,34 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.11.23 04:29</t>
+          <t>2023.11.29 07:45</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>186.56</t>
+          <t>2045.49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.29 07:49</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>187.705</t>
+          <t>2045.42</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>-23,15 USD</t>
+          <t>0,18 USD</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2015,34 +2015,34 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.11.23 09:06</t>
+          <t>2023.11.29 07:40</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1995.03</t>
+          <t>2044.68</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.11.23 09:08</t>
+          <t>2023.11.29 07:41</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1995.08</t>
+          <t>2044.69</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>-0,40 USD</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2057,22 +2057,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.11.23 05:00</t>
+          <t>2023.11.29 07:35</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1997.74</t>
+          <t>2045.37</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.23 05:27</t>
+          <t>2023.11.29 07:38</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1996.49</t>
+          <t>2044.96</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2084,12 +2084,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2099,34 +2099,34 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.11.23 04:28</t>
+          <t>2023.11.29 07:29</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>186.561</t>
+          <t>2044.63</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2023.11.23 04:28</t>
+          <t>2023.11.29 07:33</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>186.562</t>
+          <t>2044.76</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>-0,37 USD</t>
+          <t>-1,80 USD</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2141,34 +2141,34 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.11.23 03:52</t>
+          <t>2023.11.29 07:25</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1993.95</t>
+          <t>2045.18</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.11.23 04:27</t>
+          <t>2023.11.29 07:28</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1993.9</t>
+          <t>2044.75</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>2,28 USD</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2178,39 +2178,39 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.11.23 03:34</t>
+          <t>2023.11.29 07:10</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1994.23</t>
+          <t>2043.38</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023.11.23 03:44</t>
+          <t>2023.11.29 07:21</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1993.99</t>
+          <t>2044.87</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-3,19 USD</t>
+          <t>-7,70 USD</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2225,39 +2225,39 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.11.22 21:20</t>
+          <t>2023.11.29 07:07</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1990.3</t>
+          <t>2044.14</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.11.22 22:17</t>
+          <t>2023.11.29 07:09</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1989.91</t>
+          <t>2043.52</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>3,74 USD</t>
+          <t>1,71 USD</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ETHUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2267,27 +2267,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.11.22 21:11</t>
+          <t>2023.11.29 06:47</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2073.6</t>
+          <t>2045.15</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.11.22 21:21</t>
+          <t>2023.11.29 07:03</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2076.02</t>
+          <t>2044.46</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-0,54 USD</t>
+          <t>4,48 USD</t>
         </is>
       </c>
     </row>
@@ -2309,27 +2309,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.11.22 20:18</t>
+          <t>2023.11.29 06:39</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1989.73</t>
+          <t>2045.34</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.11.22 21:07</t>
+          <t>2023.11.29 06:46</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1991.4</t>
+          <t>2044.93</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-12,04 USD</t>
+          <t>2,52 USD</t>
         </is>
       </c>
     </row>
@@ -2346,39 +2346,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.11.22 19:59</t>
+          <t>2023.11.29 06:37</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1988.4</t>
+          <t>2045.56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.11.22 20:06</t>
+          <t>2023.11.29 06:38</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1989.87</t>
+          <t>2045.01</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>7,10 USD</t>
+          <t>2,50 USD</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2388,39 +2388,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.11.22 16:55</t>
+          <t>2023.11.29 06:33</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1995.4</t>
+          <t>2045.74</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.11.22 17:21</t>
+          <t>2023.11.29 06:34</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1991.96</t>
+          <t>2045.62</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-38,39 USD</t>
+          <t>0,28 USD</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2430,39 +2430,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.11.22 17:00</t>
+          <t>2023.11.29 06:30</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1995.05</t>
+          <t>2046.65</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023.11.22 17:21</t>
+          <t>2023.11.29 06:31</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1991.94</t>
+          <t>2046.43</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-34,76 USD</t>
+          <t>0,85 USD</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2472,39 +2472,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.29 06:14</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1994.43</t>
+          <t>2047.24</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2023.11.22 16:54</t>
+          <t>2023.11.29 06:29</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1995.4</t>
+          <t>2047.2</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>10,12 USD</t>
+          <t>-0,05 USD</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2519,34 +2519,34 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.11.22 16:31</t>
+          <t>2023.11.28 17:06</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1991.25</t>
+          <t>2032.89</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2023.11.22 16:33</t>
+          <t>2023.11.29 06:08</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1991.03</t>
+          <t>2048.69</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1,70 USD</t>
+          <t>-174,35 USD</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2561,39 +2561,39 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.11.22 16:26</t>
+          <t>2023.11.28 17:53</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1991.45</t>
+          <t>2038.91</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2023.11.22 16:27</t>
+          <t>2023.11.29 06:08</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1990.42</t>
+          <t>2048.71</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>10,78 USD</t>
+          <t>-49,25 USD</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2603,39 +2603,39 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.11.22 16:21</t>
+          <t>2023.11.28 17:14</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1993.02</t>
+          <t>24.921</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2023.11.22 16:23</t>
+          <t>2023.11.28 17:34</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1991.91</t>
+          <t>24.902</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>11,66 USD</t>
+          <t>9,00 USD</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2645,34 +2645,34 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023.11.22 16:17</t>
+          <t>2023.11.28 16:56</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1994.42</t>
+          <t>24.852</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023.11.22 16:19</t>
+          <t>2023.11.28 16:58</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1992.98</t>
+          <t>24.896</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>15,29 USD</t>
+          <t>-22,50 USD</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2687,39 +2687,39 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.11.22 16:11</t>
+          <t>2023.11.28 16:39</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1993.01</t>
+          <t>2028.56</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023.11.22 16:12</t>
+          <t>2023.11.28 16:48</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1992.63</t>
+          <t>2029.73</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>3,63 USD</t>
+          <t>-12,20 USD</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2729,76 +2729,76 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.11.22 16:08</t>
+          <t>2023.11.28 15:32</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1996.62</t>
+          <t>0.87858</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023.11.22 16:10</t>
+          <t>2023.11.28 16:37</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1994.79</t>
+          <t>0.87957</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>-20,68 USD</t>
+          <t>10,91 USD</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.11.22 16:02</t>
+          <t>2023.11.28 14:51</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1997.12</t>
+          <t>0.8799</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023.11.22 16:03</t>
+          <t>2023.11.28 16:37</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1997.71</t>
+          <t>0.8796</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>-7,04 USD</t>
+          <t>-3,76 USD</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2813,27 +2813,27 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.11.22 16:01</t>
+          <t>2023.11.28 15:44</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1998.76</t>
+          <t>2023.75</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023.11.22 16:02</t>
+          <t>2023.11.28 15:53</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1998.43</t>
+          <t>2026.47</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>3,08 USD</t>
+          <t>-27,70 USD</t>
         </is>
       </c>
     </row>
@@ -2855,34 +2855,34 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.11.22 15:41</t>
+          <t>2023.11.28 15:37</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2001.22</t>
+          <t>2024.92</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2023.11.22 16:00</t>
+          <t>2023.11.28 15:42</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1999.6</t>
+          <t>2022.98</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>17,27 USD</t>
+          <t>20,79 USD</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2897,39 +2897,39 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.11.22 14:50</t>
+          <t>2023.11.28 15:27</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1997.73</t>
+          <t>2026.65</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2023.11.22 15:37</t>
+          <t>2023.11.28 15:35</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2001.84</t>
+          <t>2025.88</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-62,40 USD</t>
+          <t>7,92 USD</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2939,39 +2939,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.11.22 14:57</t>
+          <t>2023.11.28 15:28</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1999.19</t>
+          <t>0.87839</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.11.22 15:37</t>
+          <t>2023.11.28 15:30</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2002.12</t>
+          <t>0.87837</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>-32,78 USD</t>
+          <t>-0,07 USD</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2981,39 +2981,39 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.11.22 14:47</t>
+          <t>2023.11.28 15:15</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1999.03</t>
+          <t>1.26391</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.11.22 14:49</t>
+          <t>2023.11.28 15:24</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1998.31</t>
+          <t>1.26567</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>7,37 USD</t>
+          <t>-17,95 USD</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3023,76 +3023,76 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.11.22 14:33</t>
+          <t>2023.11.28 14:55</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1999.58</t>
+          <t>24.706</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2023.11.22 14:46</t>
+          <t>2023.11.28 15:04</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1999.6</t>
+          <t>24.718</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>-1,05 USD</t>
+          <t>-7,15 USD</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.11.22 14:02</t>
+          <t>2023.11.28 14:46</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2002.55</t>
+          <t>24.647</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023.11.22 14:32</t>
+          <t>2023.11.28 14:48</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1998.51</t>
+          <t>24.643</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>-44,99 USD</t>
+          <t>1,50 USD</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3107,34 +3107,34 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.11.22 14:12</t>
+          <t>2023.11.28 14:19</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2001.06</t>
+          <t>2012.85</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023.11.22 14:32</t>
+          <t>2023.11.28 14:26</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1999.7</t>
+          <t>2014.78</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>-21,15 USD</t>
+          <t>18,80 USD</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3149,34 +3149,34 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.11.22 13:21</t>
+          <t>2023.11.28 13:35</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2001.34</t>
+          <t>2015.62</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2023.11.22 13:22</t>
+          <t>2023.11.28 13:48</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2002.1</t>
+          <t>2015.58</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>-8,91 USD</t>
+          <t>-0,05 USD</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3186,44 +3186,44 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.11.22 12:45</t>
+          <t>2023.11.28 13:14</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2002.23</t>
+          <t>2015.4</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2023.11.22 13:16</t>
+          <t>2023.11.28 13:18</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2002.34</t>
+          <t>2015.17</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>0,90 USD</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3233,76 +3233,76 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.11.22 12:31</t>
+          <t>2023.11.28 12:47</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>148.788</t>
+          <t>2015.45</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.11.22 12:37</t>
+          <t>2023.11.28 13:01</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>148.87</t>
+          <t>2014.79</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>-6,45 USD</t>
+          <t>3,05 USD</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.11.22 12:32</t>
+          <t>2023.11.28 12:18</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>186.47</t>
+          <t>2014.89</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.11.22 12:37</t>
+          <t>2023.11.28 12:26</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>186.496</t>
+          <t>2015.23</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>-2,64 USD</t>
+          <t>3,19 USD</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3317,27 +3317,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.11.22 12:27</t>
+          <t>2023.11.28 11:33</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2003.02</t>
+          <t>2014.17</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.11.22 12:28</t>
+          <t>2023.11.28 12:07</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2002.9</t>
+          <t>2015.36</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>-2,55 USD</t>
+          <t>12,54 USD</t>
         </is>
       </c>
     </row>
@@ -3359,34 +3359,34 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.11.22 11:19</t>
+          <t>2023.11.28 11:25</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2000.84</t>
+          <t>2015.05</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.11.22 12:10</t>
+          <t>2023.11.28 12:05</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2002.12</t>
+          <t>2015.11</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>13,53 USD</t>
+          <t>0,11 USD</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3396,39 +3396,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.11.22 11:05</t>
+          <t>2023.11.28 11:18</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2002.24</t>
+          <t>2015.16</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.11.22 11:09</t>
+          <t>2023.11.28 11:23</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2001.54</t>
+          <t>2015.56</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>9,10 USD</t>
+          <t>3,50 USD</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3443,34 +3443,34 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.11.22 11:00</t>
+          <t>2023.11.28 10:32</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2002.06</t>
+          <t>2015.98</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.11.22 11:01</t>
+          <t>2023.11.28 10:34</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2001.83</t>
+          <t>2015.87</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2,70 USD</t>
+          <t>0,60 USD</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3485,27 +3485,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.11.22 10:50</t>
+          <t>2023.11.28 10:28</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2003.29</t>
+          <t>2015.95</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.11.22 10:52</t>
+          <t>2023.11.28 10:30</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2003.01</t>
+          <t>2015.63</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2,53 USD</t>
+          <t>2,70 USD</t>
         </is>
       </c>
     </row>
@@ -3522,39 +3522,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.11.22 10:32</t>
+          <t>2023.11.28 10:25</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2001.66</t>
+          <t>2015.87</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023.11.22 10:46</t>
+          <t>2023.11.28 10:26</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2002.99</t>
+          <t>2015.57</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>14,08 USD</t>
+          <t>2,75 USD</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3564,39 +3564,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.11.22 10:31</t>
+          <t>2023.11.28 10:15</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2001.11</t>
+          <t>2015.46</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023.11.22 10:33</t>
+          <t>2023.11.28 10:21</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2001.25</t>
+          <t>2016.07</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0,99 USD</t>
+          <t>-4,62 USD</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3611,34 +3611,34 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.11.22 09:53</t>
+          <t>2023.11.28 09:18</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2000.59</t>
+          <t>2013.29</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.11.22 10:21</t>
+          <t>2023.11.28 09:26</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1999.36</t>
+          <t>2014.22</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>-19,20 USD</t>
+          <t>8,80 USD</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3653,39 +3653,39 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.11.22 09:33</t>
+          <t>2023.11.28 09:09</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2001.72</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023.11.22 10:12</t>
+          <t>2023.11.28 09:26</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2001.79</t>
+          <t>2014.11</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0,24 USD</t>
+          <t>0,60 USD</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3695,39 +3695,39 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.11.22 08:59</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2004.02</t>
+          <t>0.60903</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023.11.22 09:28</t>
+          <t>2023.11.28 08:56</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2002.49</t>
+          <t>0.60937</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>22,20 USD</t>
+          <t>-3,75 USD</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3737,34 +3737,34 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.11.22 08:27</t>
+          <t>2023.11.28 08:36</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2002.88</t>
+          <t>0.60959</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.11.22 09:04</t>
+          <t>2023.11.28 08:42</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2004.67</t>
+          <t>0.60927</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>-20,24 USD</t>
+          <t>2,85 USD</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3779,34 +3779,34 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.11.22 08:17</t>
+          <t>2023.11.28 08:20</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2001.98</t>
+          <t>2015.9</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.11.22 09:04</t>
+          <t>2023.11.28 08:20</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2004.47</t>
+          <t>2015.54</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>-27,94 USD</t>
+          <t>3,10 USD</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3816,44 +3816,44 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.11.22 08:03</t>
+          <t>2023.11.28 08:08</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2000.31</t>
+          <t>2016.52</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023.11.22 08:09</t>
+          <t>2023.11.28 08:14</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2001.98</t>
+          <t>2015.99</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>-18,92 USD</t>
+          <t>-5,80 USD</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3863,76 +3863,76 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.11.22 07:41</t>
+          <t>2023.11.28 07:59</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>186.439</t>
+          <t>2016.11</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023.11.22 07:48</t>
+          <t>2023.11.28 08:02</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>186.477</t>
+          <t>2016.53</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2,31 USD</t>
+          <t>3,70 USD</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.11.22 05:08</t>
+          <t>2023.11.28 07:50</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.25361</t>
+          <t>2015.65</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023.11.22 07:36</t>
+          <t>2023.11.28 07:52</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1.25151</t>
+          <t>2016.11</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>22,71 USD</t>
+          <t>4,10 USD</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3942,39 +3942,39 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023.11.22 06:33</t>
+          <t>2023.11.28 07:41</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1997.92</t>
+          <t>2015.89</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.11.22 07:16</t>
+          <t>2023.11.28 07:51</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1999.76</t>
+          <t>2015.94</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>-20,79 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3989,34 +3989,34 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.11.22 05:52</t>
+          <t>2023.11.28 07:29</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1999.76</t>
+          <t>2015.37</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.11.22 06:31</t>
+          <t>2023.11.28 07:33</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1998.83</t>
+          <t>2015.96</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>-10,78 USD</t>
+          <t>5,40 USD</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4031,27 +4031,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.11.22 05:58</t>
+          <t>2023.11.28 07:26</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1999.42</t>
+          <t>2015.77</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023.11.22 06:31</t>
+          <t>2023.11.28 07:33</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1998.94</t>
+          <t>2015.97</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>-5,83 USD</t>
+          <t>1,50 USD</t>
         </is>
       </c>
     </row>
@@ -4063,44 +4063,44 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.11.21 21:05</t>
+          <t>2023.11.28 06:44</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0.60505</t>
+          <t>1.90857</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023.11.21 21:07</t>
+          <t>2023.11.28 07:31</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.60509</t>
+          <t>1.90721</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-0,83 USD</t>
+          <t>-10,41 USD</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4110,44 +4110,44 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.11.21 20:18</t>
+          <t>2023.11.28 07:06</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1998.74</t>
+          <t>2015.79</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023.11.21 21:02</t>
+          <t>2023.11.28 07:20</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1999.92</t>
+          <t>2016.74</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>-18,45 USD</t>
+          <t>9,90 USD</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4157,69 +4157,69 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.11.21 20:04</t>
+          <t>2023.11.28 06:49</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.89774</t>
+          <t>2014.92</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023.11.21 20:06</t>
+          <t>2023.11.28 07:04</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.89741</t>
+          <t>2015.51</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>-3,15 USD</t>
+          <t>5,40 USD</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023.11.21 17:41</t>
+          <t>2023.11.28 06:44</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.89872</t>
+          <t>1.90849</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023.11.21 18:20</t>
+          <t>2023.11.28 06:44</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.89888</t>
+          <t>1.90856</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0,79 USD</t>
+          <t>-0,91 USD</t>
         </is>
       </c>
     </row>
@@ -4241,34 +4241,34 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.11.21 15:31</t>
+          <t>2023.11.28 05:52</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2002.87</t>
+          <t>2015.49</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023.11.21 17:26</t>
+          <t>2023.11.28 06:41</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2000.1</t>
+          <t>2014.7</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>29,92 USD</t>
+          <t>8,14 USD</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4283,27 +4283,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023.11.21 15:27</t>
+          <t>2023.11.28 05:52</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2001.44</t>
+          <t>2015.61</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023.11.21 17:24</t>
+          <t>2023.11.28 06:36</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2001.05</t>
+          <t>2014.95</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>3,74 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
@@ -4325,27 +4325,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.11.21 15:11</t>
+          <t>2023.11.28 05:44</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1999.04</t>
+          <t>2016.44</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023.11.21 15:26</t>
+          <t>2023.11.28 05:48</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2000.71</t>
+          <t>2015.51</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>-18,92 USD</t>
+          <t>9,68 USD</t>
         </is>
       </c>
     </row>
@@ -4367,39 +4367,39 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.11.21 15:05</t>
+          <t>2023.11.28 05:34</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1997.49</t>
+          <t>2015.55</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.11.21 15:07</t>
+          <t>2023.11.28 05:48</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1999.28</t>
+          <t>2015.51</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>-20,24 USD</t>
+          <t>-0,11 USD</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4409,34 +4409,34 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.11.21 14:31</t>
+          <t>2023.11.27 21:15</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1998.53</t>
+          <t>1.26275</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.11.21 14:46</t>
+          <t>2023.11.27 21:44</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1993.89</t>
+          <t>1.26309</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>50,49 USD</t>
+          <t>-3,75 USD</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4451,39 +4451,39 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.11.21 14:27</t>
+          <t>2023.11.27 20:38</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1995.25</t>
+          <t>2013.58</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023.11.21 14:46</t>
+          <t>2023.11.27 20:53</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1993.87</t>
+          <t>2012.69</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>14,63 USD</t>
+          <t>4,20 USD</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4493,27 +4493,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.11.21 14:25</t>
+          <t>2023.11.27 20:25</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.90307</t>
+          <t>2012.41</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.11.21 14:42</t>
+          <t>2023.11.27 20:53</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.90069</t>
+          <t>2012.75</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>18,61 USD</t>
+          <t>-3,90 USD</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4535,39 +4535,39 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.11.21 14:19</t>
+          <t>2023.11.27 20:03</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.90289</t>
+          <t>24.646</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.11.21 14:21</t>
+          <t>2023.11.27 20:21</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.90303</t>
+          <t>24.645</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>-1,62 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4577,34 +4577,34 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.11.21 12:55</t>
+          <t>2023.11.27 19:40</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.90093</t>
+          <t>24.646</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.11.21 13:03</t>
+          <t>2023.11.27 20:00</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.90076</t>
+          <t>24.645</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0,86 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4614,32 +4614,32 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023.11.21 12:37</t>
+          <t>2023.11.27 19:02</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1988.92</t>
+          <t>2010.67</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2023.11.21 12:41</t>
+          <t>2023.11.27 19:31</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1988.32</t>
+          <t>2012.32</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>-7,15 USD</t>
+          <t>-17,00 USD</t>
         </is>
       </c>
     </row>
@@ -4651,49 +4651,49 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>GBPNZD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2023.11.21 11:01</t>
+          <t>2023.11.27 18:49</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2.06738</t>
+          <t>2010.42</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2023.11.21 11:20</t>
+          <t>2023.11.27 18:59</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2.06665</t>
+          <t>2010.06</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>-5,37 USD</t>
+          <t>3,41 USD</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>GBPNZD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4703,39 +4703,39 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2023.11.21 09:38</t>
+          <t>2023.11.27 15:40</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2.06007</t>
+          <t>2011.69</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2023.11.21 10:52</t>
+          <t>2023.11.27 15:42</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2.06702</t>
+          <t>2012.07</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>62,54 USD</t>
+          <t>3,30 USD</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>GBPNZD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4745,39 +4745,39 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2023.11.21 09:19</t>
+          <t>2023.11.27 15:37</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2.06318</t>
+          <t>2011.72</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2023.11.21 09:33</t>
+          <t>2023.11.27 15:38</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2.05984</t>
+          <t>2011.97</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>-43,63 USD</t>
+          <t>2,00 USD</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>GBPNZD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4787,67 +4787,4099 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2023.11.21 08:48</t>
+          <t>2023.11.27 15:27</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2.06454</t>
+          <t>2011.59</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2023.11.21 09:03</t>
+          <t>2023.11.27 15:28</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2.06353</t>
+          <t>2012.09</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>-9,88 USD</t>
+          <t>4,95 USD</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023.11.27 15:09</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2011.76</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2023.11.27 15:12</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2011.99</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>1,80 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023.11.27 14:57</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2011.62</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2023.11.27 15:01</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2011.92</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2,75 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023.11.27 14:51</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2011.56</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2023.11.27 14:52</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2012.72</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>11,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023.11.27 14:30</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2014.59</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2023.11.27 14:34</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2015.43</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>-9,79 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023.11.27 13:18</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2013.77</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2023.11.27 13:27</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2013.02</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>7,70 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>GBPCAD</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023.11.27 12:38</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1.72103</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2023.11.27 12:41</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1.72071</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>GBPCAD</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023.11.27 11:50</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1.72174</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2023.11.27 12:02</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>1.72146</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>1,76 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>GBPCAD</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023.11.27 11:28</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1.72171</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2023.11.27 11:47</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>1.7213</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2,81 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023.11.27 09:53</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2013.58</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2023.11.27 11:17</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2012.99</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>5,94 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023.11.27 09:55</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2013.54</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2023.11.27 11:17</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2012.97</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>5,72 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023.11.27 09:24</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2012.61</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2023.11.27 11:16</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2012.99</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>-4,30 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023.11.27 08:52</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2010.92</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2023.11.27 09:00</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2011.14</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>-2,97 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023.11.27 08:19</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2010.69</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2023.11.27 08:33</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2010.14</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>5,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023.11.27 08:02</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1.26211</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2023.11.27 08:07</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>1.26212</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>-0,23 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
           <t>0,15</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>GOLD</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023.11.27 04:47</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1.26019</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2023.11.27 05:16</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>1.26018</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>-0,38 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023.11.25 12:30</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>37645.31</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2023.11.25 12:32</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>37647.9</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>-2,13 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>BTCUSD</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023.11.25 12:29</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>37641.09</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2023.11.25 12:29</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>37645.3</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>-1,98 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023.11.24 16:09</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2002.54</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2023.11.24 16:21</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2001.16</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>-8,58 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023.11.24 15:59</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2001.19</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2023.11.24 16:03</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2003.47</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>-13,98 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023.11.24 15:57</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2001.22</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2023.11.24 15:58</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2001.55</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>1,68 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023.11.24 15:54</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2000.81</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2023.11.24 15:55</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2001.04</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>-1,68 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023.11.24 15:47</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2000.9</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2023.11.24 15:53</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2000.56</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2,03 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023.11.24 15:45</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2000.37</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2023.11.24 15:46</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2000.15</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>1,02 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023.11.24 15:41</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2002.58</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2023.11.24 15:43</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2001.82</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>3,55 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023.11.24 15:31</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2001.79</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2023.11.24 15:31</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2002.78</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>-5,20 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023.11.24 15:19</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2001.09</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2023.11.24 15:20</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2001.23</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>-0,95 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023.11.24 08:52</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1993.46</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2023.11.24 09:21</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>1993.67</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>0,80 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023.11.23 10:32</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1993.05</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2023.11.23 14:54</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>1993.08</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>-0,14 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>GBPJPY</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023.11.23 04:29</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>186.56</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2023.11.23 10:30</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>187.705</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>-23,15 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023.11.23 09:06</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1995.03</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2023.11.23 09:08</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>1995.08</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>0,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023.11.23 05:00</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1997.74</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2023.11.23 05:27</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>1996.49</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>3,60 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>GBPJPY</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023.11.23 04:28</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>186.561</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2023.11.23 04:28</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>186.562</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>-0,37 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023.11.23 03:52</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1993.95</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2023.11.23 04:27</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>1993.9</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>0,00 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023.11.23 03:34</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1994.23</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2023.11.23 03:44</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>1993.99</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>-3,19 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023.11.22 21:20</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1990.3</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2023.11.22 22:17</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>1989.91</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>3,74 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ETHUSD</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023.11.22 21:11</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2073.6</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2023.11.22 21:21</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2076.02</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>-0,54 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023.11.22 20:18</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1989.73</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2023.11.22 21:07</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>1991.4</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>-12,04 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023.11.22 19:59</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>1988.4</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2023.11.22 20:06</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>1989.87</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>7,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:55</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1995.4</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2023.11.22 17:21</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>1991.96</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>-38,39 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023.11.22 17:00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1995.05</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2023.11.22 17:21</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>1991.94</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>-34,76 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:49</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1994.43</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:54</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>1995.4</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>10,12 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:31</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>1991.25</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:33</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>1991.03</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>1,70 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:26</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>1991.45</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:27</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>1990.42</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>10,78 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:21</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>1993.02</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:23</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>1991.91</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>11,66 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:17</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1994.42</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:19</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>1992.98</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>15,29 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:11</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1993.01</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:12</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>1992.63</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>3,63 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:08</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1996.62</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:10</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>1994.79</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>-20,68 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:02</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>1997.12</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:03</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>1997.71</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>-7,04 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:01</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1998.76</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:02</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>1998.43</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>3,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:41</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2001.22</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2023.11.22 16:00</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>1999.6</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>17,27 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:50</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1997.73</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:37</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2001.84</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>-62,40 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:57</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>1999.19</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:37</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2002.12</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>-32,78 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:47</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1999.03</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:49</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>1998.31</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>7,37 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:33</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>1999.58</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:46</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>1999.6</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>-1,05 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:02</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2002.55</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:32</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>1998.51</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>-44,99 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:12</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2001.06</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:32</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>1999.7</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>-21,15 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023.11.22 13:21</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2001.34</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2023.11.22 13:22</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2002.1</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>-8,91 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:45</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2002.23</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2023.11.22 13:16</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2002.34</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>0,66 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:31</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>148.788</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:37</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>148.87</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>-6,45 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>GBPJPY</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:32</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>186.47</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:37</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>186.496</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>-2,64 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:27</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2003.02</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:28</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2002.9</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>-2,55 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023.11.22 11:19</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>2000.84</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:10</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>2002.12</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>13,53 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023.11.22 11:05</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2002.24</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2023.11.22 11:09</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>2001.54</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>9,10 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023.11.22 11:00</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>2002.06</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2023.11.22 11:01</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>2001.83</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>2,70 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023.11.22 10:50</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>2003.29</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2023.11.22 10:52</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2003.01</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>2,53 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023.11.22 10:32</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2001.66</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2023.11.22 10:46</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2002.99</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>14,08 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023.11.22 10:31</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>2001.11</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2023.11.22 10:33</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2001.25</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>0,99 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:53</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2000.59</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2023.11.22 10:21</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>1999.36</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>-19,20 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:33</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>2001.72</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2023.11.22 10:12</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2001.79</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>0,24 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:59</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2004.02</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:28</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>2002.49</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>22,20 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:27</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2002.88</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:04</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>2004.67</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>-20,24 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:17</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>2001.98</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2023.11.22 09:04</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2004.47</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>-27,94 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:03</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2000.31</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2023.11.22 08:09</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2001.98</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>-18,92 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>GBPJPY</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:41</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>186.439</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:48</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>186.477</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>2,31 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023.11.22 05:08</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>1.25361</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:36</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>1.25151</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>22,71 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023.11.22 06:33</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>1997.92</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2023.11.22 07:16</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>1999.76</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>-20,79 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023.11.22 05:52</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>1999.76</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2023.11.22 06:31</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>1998.83</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>-10,78 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023.11.22 05:58</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>1999.42</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2023.11.22 06:31</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>1998.94</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>-5,83 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>NZDUSD</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023.11.21 21:05</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>0.60505</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2023.11.21 21:07</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.60509</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>-0,83 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023.11.21 20:18</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>1998.74</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2023.11.21 21:02</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>1999.92</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>-18,45 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023.11.21 20:04</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>0.89774</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2023.11.21 20:06</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.89741</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>-3,15 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023.11.21 17:41</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>0.89872</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2023.11.21 18:20</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.89888</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>0,79 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023.11.21 15:31</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>2002.87</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2023.11.21 17:26</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2000.1</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>29,92 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023.11.21 15:27</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>2001.44</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2023.11.21 17:24</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>2001.05</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>3,74 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023.11.21 15:11</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>1999.04</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2023.11.21 15:26</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>2000.71</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>-18,92 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023.11.21 15:05</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>1997.49</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2023.11.21 15:07</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>1999.28</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>-20,24 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023.11.21 14:31</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>1998.53</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2023.11.21 14:46</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>1993.89</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>50,49 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023.11.21 14:27</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>1995.25</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2023.11.21 14:46</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>1993.87</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>14,63 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023.11.21 14:25</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>0.90307</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2023.11.21 14:42</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.90069</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>18,61 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023.11.21 14:19</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>0.90289</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2023.11.21 14:21</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.90303</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>-1,62 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023.11.21 12:55</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>0.90093</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2023.11.21 13:03</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.90076</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>0,86 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023.11.21 12:37</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>1988.92</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2023.11.21 12:41</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>1988.32</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>-7,15 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>GBPNZD</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023.11.21 11:01</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>2.06738</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2023.11.21 11:20</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>2.06665</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>-5,37 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>GBPNZD</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023.11.21 09:38</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>2.06007</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2023.11.21 10:52</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2.06702</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>62,54 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>GBPNZD</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023.11.21 09:19</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2.06318</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2023.11.21 09:33</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2.05984</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>-43,63 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>GBPNZD</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023.11.21 08:48</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>2.06454</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2023.11.21 09:03</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2.06353</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>-9,88 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
         <is>
           <t>2023.11.21 07:18</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>1990.73</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>2023.11.21 08:31</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>1992.87</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="H201" t="inlineStr">
         <is>
           <t>-32,85 USD</t>
         </is>

--- a/resources/БАЗА ДАННЫХ/litefinance/excel/Reza_baderlou199.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/Reza_baderlou199.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -498,39 +498,39 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.29 14:46</t>
+          <t>2023.11.30 09:40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2038.99</t>
+          <t>2041.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.29 14:50</t>
+          <t>2023.11.30 10:33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2039.75</t>
+          <t>2042.18</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-3,24 USD</t>
+          <t>0,90 USD</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -540,32 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.29 14:05</t>
+          <t>2023.11.30 09:44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2040.83</t>
+          <t>2041.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.29 14:34</t>
+          <t>2023.11.30 10:33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2040.65</t>
+          <t>2042.19</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0,65 USD</t>
+          <t>1,44 USD</t>
         </is>
       </c>
     </row>
@@ -587,34 +587,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.29 13:54</t>
+          <t>2023.11.29 15:01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2041.77</t>
+          <t>2037.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.29 14:02</t>
+          <t>2023.11.30 09:40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2040.72</t>
+          <t>2041.93</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5,00 USD</t>
+          <t>-20,25 USD</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -629,27 +629,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.29 13:00</t>
+          <t>2023.11.29 14:46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2039.68</t>
+          <t>2038.99</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.29 13:00</t>
+          <t>2023.11.29 14:50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2039.6</t>
+          <t>2039.75</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>-3,24 USD</t>
         </is>
       </c>
     </row>
@@ -666,32 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.29 12:45</t>
+          <t>2023.11.29 14:05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2038.96</t>
+          <t>2040.83</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.29 12:52</t>
+          <t>2023.11.29 14:34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2039.25</t>
+          <t>2040.65</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1,20 USD</t>
+          <t>0,65 USD</t>
         </is>
       </c>
     </row>
@@ -708,39 +708,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.29 10:54</t>
+          <t>2023.11.29 13:54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2039.26</t>
+          <t>2041.77</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.29 11:38</t>
+          <t>2023.11.29 14:02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2037.4</t>
+          <t>2040.72</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-9,55 USD</t>
+          <t>5,00 USD</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -750,39 +750,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.29 11:09</t>
+          <t>2023.11.29 13:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2038.52</t>
+          <t>2039.68</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.29 11:38</t>
+          <t>2023.11.29 13:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2037.49</t>
+          <t>2039.6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-5,40 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -797,27 +797,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.29 10:51</t>
+          <t>2023.11.29 12:45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2038.81</t>
+          <t>2038.96</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.29 10:53</t>
+          <t>2023.11.29 12:52</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2039</t>
+          <t>2039.25</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0,56 USD</t>
+          <t>1,20 USD</t>
         </is>
       </c>
     </row>
@@ -839,34 +839,34 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.29 10:19</t>
+          <t>2023.11.29 10:54</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2041.96</t>
+          <t>2039.26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.29 10:31</t>
+          <t>2023.11.29 11:38</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2038.59</t>
+          <t>2037.4</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-17,10 USD</t>
+          <t>-9,55 USD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -881,27 +881,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.29 10:20</t>
+          <t>2023.11.29 11:09</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2041.35</t>
+          <t>2038.52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.29 10:31</t>
+          <t>2023.11.29 11:38</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2038.63</t>
+          <t>2037.49</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-16,62 USD</t>
+          <t>-5,40 USD</t>
         </is>
       </c>
     </row>
@@ -923,34 +923,34 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.29 10:21</t>
+          <t>2023.11.29 10:51</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2040.25</t>
+          <t>2038.81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.29 10:31</t>
+          <t>2023.11.29 10:53</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2038.58</t>
+          <t>2039</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-6,88 USD</t>
+          <t>0,56 USD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -960,32 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.29 10:07</t>
+          <t>2023.11.29 10:19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2042.36</t>
+          <t>2041.96</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.29 10:12</t>
+          <t>2023.11.29 10:31</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2042.03</t>
+          <t>2038.59</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1,96 USD</t>
+          <t>-17,10 USD</t>
         </is>
       </c>
     </row>
@@ -1002,39 +1002,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.29 10:01</t>
+          <t>2023.11.29 10:20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2043.25</t>
+          <t>2041.35</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.29 10:03</t>
+          <t>2023.11.29 10:31</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2042.02</t>
+          <t>2038.63</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>7,08 USD</t>
+          <t>-16,62 USD</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1049,34 +1049,34 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.29 09:49</t>
+          <t>2023.11.29 10:21</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2041.84</t>
+          <t>2040.25</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.29 09:56</t>
+          <t>2023.11.29 10:31</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2042.73</t>
+          <t>2038.58</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>5,04 USD</t>
+          <t>-6,88 USD</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1091,34 +1091,34 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.29 09:39</t>
+          <t>2023.11.29 10:07</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2043.5</t>
+          <t>2042.36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.29 09:44</t>
+          <t>2023.11.29 10:12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2042.56</t>
+          <t>2042.03</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>5,34 USD</t>
+          <t>1,96 USD</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1128,32 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.29 09:25</t>
+          <t>2023.11.29 10:01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2042.05</t>
+          <t>2043.25</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.29 09:28</t>
+          <t>2023.11.29 10:03</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2042.57</t>
+          <t>2042.02</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1,88 USD</t>
+          <t>7,08 USD</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.29 09:21</t>
+          <t>2023.11.29 09:49</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2041.95</t>
+          <t>2041.84</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.29 09:24</t>
+          <t>2023.11.29 09:56</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2041.72</t>
+          <t>2042.73</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1,08 USD</t>
+          <t>5,04 USD</t>
         </is>
       </c>
     </row>
@@ -1217,34 +1217,34 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.29 09:16</t>
+          <t>2023.11.29 09:39</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2042.92</t>
+          <t>2043.5</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.29 09:19</t>
+          <t>2023.11.29 09:44</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2042.41</t>
+          <t>2042.56</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2,76 USD</t>
+          <t>5,34 USD</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1254,32 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.29 09:15</t>
+          <t>2023.11.29 09:25</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2042.53</t>
+          <t>2042.05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.29 09:18</t>
+          <t>2023.11.29 09:28</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2042.36</t>
+          <t>2042.57</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0,72 USD</t>
+          <t>1,88 USD</t>
         </is>
       </c>
     </row>
@@ -1301,34 +1301,34 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.29 09:08</t>
+          <t>2023.11.29 09:21</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2043.69</t>
+          <t>2041.95</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.29 09:14</t>
+          <t>2023.11.29 09:24</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2042.43</t>
+          <t>2041.72</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>7,26 USD</t>
+          <t>1,08 USD</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1343,34 +1343,34 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.29 09:01</t>
+          <t>2023.11.29 09:16</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2042.91</t>
+          <t>2042.92</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.29 09:13</t>
+          <t>2023.11.29 09:19</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2042.8</t>
+          <t>2042.41</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0,60 USD</t>
+          <t>2,76 USD</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1385,34 +1385,34 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.29 09:02</t>
+          <t>2023.11.29 09:15</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2043.58</t>
+          <t>2042.53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.29 09:03</t>
+          <t>2023.11.29 09:18</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2043.12</t>
+          <t>2042.36</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2,05 USD</t>
+          <t>0,72 USD</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.29 08:53</t>
+          <t>2023.11.29 09:08</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2042.28</t>
+          <t>2043.69</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.29 08:58</t>
+          <t>2023.11.29 09:14</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2042.47</t>
+          <t>2042.43</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1,40 USD</t>
+          <t>7,26 USD</t>
         </is>
       </c>
     </row>
@@ -1469,34 +1469,34 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.29 08:52</t>
+          <t>2023.11.29 09:01</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2042.6</t>
+          <t>2042.91</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.29 08:52</t>
+          <t>2023.11.29 09:13</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2042.46</t>
+          <t>2042.8</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0,90 USD</t>
+          <t>0,60 USD</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1506,39 +1506,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.29 08:49</t>
+          <t>2023.11.29 09:02</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2042.12</t>
+          <t>2043.58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.29 08:50</t>
+          <t>2023.11.29 09:03</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2042.26</t>
+          <t>2043.12</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0,72 USD</t>
+          <t>2,05 USD</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1553,34 +1553,34 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.29 08:46</t>
+          <t>2023.11.29 08:53</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2042.01</t>
+          <t>2042.28</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.29 08:47</t>
+          <t>2023.11.29 08:58</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2042.2</t>
+          <t>2042.47</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1,12 USD</t>
+          <t>1,40 USD</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1590,39 +1590,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.29 08:40</t>
+          <t>2023.11.29 08:52</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2042.01</t>
+          <t>2042.6</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.29 08:41</t>
+          <t>2023.11.29 08:52</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2041.63</t>
+          <t>2042.46</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-2,58 USD</t>
+          <t>0,90 USD</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1637,34 +1637,34 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.29 08:31</t>
+          <t>2023.11.29 08:49</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2043.74</t>
+          <t>2042.12</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.29 08:36</t>
+          <t>2023.11.29 08:50</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2042.41</t>
+          <t>2042.26</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-12,42 USD</t>
+          <t>0,72 USD</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1679,34 +1679,34 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.29 08:30</t>
+          <t>2023.11.29 08:46</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2043.44</t>
+          <t>2042.01</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.29 08:31</t>
+          <t>2023.11.29 08:47</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2043.65</t>
+          <t>2042.2</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0,96 USD</t>
+          <t>1,12 USD</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1721,34 +1721,34 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.29 08:20</t>
+          <t>2023.11.29 08:40</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2043.46</t>
+          <t>2042.01</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.29 08:29</t>
+          <t>2023.11.29 08:41</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2042.96</t>
+          <t>2041.63</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-5,50 USD</t>
+          <t>-2,58 USD</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1763,34 +1763,34 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.29 08:17</t>
+          <t>2023.11.29 08:31</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2043.42</t>
+          <t>2043.74</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.29 08:18</t>
+          <t>2023.11.29 08:36</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2043.56</t>
+          <t>2042.41</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0,90 USD</t>
+          <t>-12,42 USD</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1805,27 +1805,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.29 08:09</t>
+          <t>2023.11.29 08:30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2043.76</t>
+          <t>2043.44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.29 08:13</t>
+          <t>2023.11.29 08:31</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2043.89</t>
+          <t>2043.65</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0,80 USD</t>
+          <t>0,96 USD</t>
         </is>
       </c>
     </row>
@@ -1847,27 +1847,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.11.29 08:06</t>
+          <t>2023.11.29 08:20</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2043.92</t>
+          <t>2043.46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.11.29 08:08</t>
+          <t>2023.11.29 08:29</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2044.02</t>
+          <t>2042.96</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0,50 USD</t>
+          <t>-5,50 USD</t>
         </is>
       </c>
     </row>
@@ -1884,32 +1884,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.29 08:03</t>
+          <t>2023.11.29 08:17</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2044.54</t>
+          <t>2043.42</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.29 08:03</t>
+          <t>2023.11.29 08:18</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2044.24</t>
+          <t>2043.56</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2,50 USD</t>
+          <t>0,90 USD</t>
         </is>
       </c>
     </row>
@@ -1926,39 +1926,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.11.29 07:56</t>
+          <t>2023.11.29 08:09</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2045.21</t>
+          <t>2043.76</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.29 07:58</t>
+          <t>2023.11.29 08:13</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2044.89</t>
+          <t>2043.89</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2,70 USD</t>
+          <t>0,80 USD</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1968,32 +1968,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.11.29 07:45</t>
+          <t>2023.11.29 08:06</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2045.49</t>
+          <t>2043.92</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.29 07:49</t>
+          <t>2023.11.29 08:08</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2045.42</t>
+          <t>2044.02</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0,18 USD</t>
+          <t>0,50 USD</t>
         </is>
       </c>
     </row>
@@ -2010,32 +2010,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.11.29 07:40</t>
+          <t>2023.11.29 08:03</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2044.68</t>
+          <t>2044.54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.11.29 07:41</t>
+          <t>2023.11.29 08:03</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2044.69</t>
+          <t>2044.24</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-0,40 USD</t>
+          <t>2,50 USD</t>
         </is>
       </c>
     </row>
@@ -2057,34 +2057,34 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.11.29 07:35</t>
+          <t>2023.11.29 07:56</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2045.37</t>
+          <t>2045.21</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.29 07:38</t>
+          <t>2023.11.29 07:58</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2044.96</t>
+          <t>2044.89</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>3,60 USD</t>
+          <t>2,70 USD</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2099,34 +2099,34 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.11.29 07:29</t>
+          <t>2023.11.29 07:45</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2044.63</t>
+          <t>2045.49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2023.11.29 07:33</t>
+          <t>2023.11.29 07:49</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2044.76</t>
+          <t>2045.42</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>-1,80 USD</t>
+          <t>0,18 USD</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2136,39 +2136,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.11.29 07:25</t>
+          <t>2023.11.29 07:40</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2045.18</t>
+          <t>2044.68</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.11.29 07:28</t>
+          <t>2023.11.29 07:41</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2044.75</t>
+          <t>2044.69</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2,28 USD</t>
+          <t>-0,40 USD</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2183,34 +2183,34 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.11.29 07:10</t>
+          <t>2023.11.29 07:35</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2043.38</t>
+          <t>2045.37</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023.11.29 07:21</t>
+          <t>2023.11.29 07:38</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2044.87</t>
+          <t>2044.96</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-7,70 USD</t>
+          <t>3,60 USD</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2225,34 +2225,34 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.11.29 07:07</t>
+          <t>2023.11.29 07:29</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2044.14</t>
+          <t>2044.63</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.11.29 07:09</t>
+          <t>2023.11.29 07:33</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2043.52</t>
+          <t>2044.76</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1,71 USD</t>
+          <t>-1,80 USD</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2267,34 +2267,34 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.11.29 06:47</t>
+          <t>2023.11.29 07:25</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2045.15</t>
+          <t>2045.18</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.11.29 07:03</t>
+          <t>2023.11.29 07:28</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2044.46</t>
+          <t>2044.75</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>4,48 USD</t>
+          <t>2,28 USD</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2309,34 +2309,34 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.11.29 06:39</t>
+          <t>2023.11.29 07:10</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2045.34</t>
+          <t>2043.38</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.11.29 06:46</t>
+          <t>2023.11.29 07:21</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2044.93</t>
+          <t>2044.87</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2,52 USD</t>
+          <t>-7,70 USD</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2351,34 +2351,34 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.11.29 06:37</t>
+          <t>2023.11.29 07:07</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2045.56</t>
+          <t>2044.14</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.11.29 06:38</t>
+          <t>2023.11.29 07:09</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2045.01</t>
+          <t>2043.52</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2,50 USD</t>
+          <t>1,71 USD</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2393,34 +2393,34 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.11.29 06:33</t>
+          <t>2023.11.29 06:47</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2045.74</t>
+          <t>2045.15</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.11.29 06:34</t>
+          <t>2023.11.29 07:03</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2045.62</t>
+          <t>2044.46</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0,28 USD</t>
+          <t>4,48 USD</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2435,27 +2435,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.11.29 06:30</t>
+          <t>2023.11.29 06:39</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2046.65</t>
+          <t>2045.34</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023.11.29 06:31</t>
+          <t>2023.11.29 06:46</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2046.43</t>
+          <t>2044.93</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0,85 USD</t>
+          <t>2,52 USD</t>
         </is>
       </c>
     </row>
@@ -2477,34 +2477,34 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.11.29 06:14</t>
+          <t>2023.11.29 06:37</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2047.24</t>
+          <t>2045.56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2023.11.29 06:29</t>
+          <t>2023.11.29 06:38</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2047.2</t>
+          <t>2045.01</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-0,05 USD</t>
+          <t>2,50 USD</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2519,27 +2519,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.11.28 17:06</t>
+          <t>2023.11.29 06:33</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2032.89</t>
+          <t>2045.74</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2023.11.29 06:08</t>
+          <t>2023.11.29 06:34</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2048.69</t>
+          <t>2045.62</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>-174,35 USD</t>
+          <t>0,28 USD</t>
         </is>
       </c>
     </row>
@@ -2561,39 +2561,39 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.11.28 17:53</t>
+          <t>2023.11.29 06:30</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2038.91</t>
+          <t>2046.65</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2023.11.29 06:08</t>
+          <t>2023.11.29 06:31</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2048.71</t>
+          <t>2046.43</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>-49,25 USD</t>
+          <t>0,85 USD</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>XAGUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2603,39 +2603,39 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.11.28 17:14</t>
+          <t>2023.11.29 06:14</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>24.921</t>
+          <t>2047.24</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2023.11.28 17:34</t>
+          <t>2023.11.29 06:29</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>24.902</t>
+          <t>2047.2</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>9,00 USD</t>
+          <t>-0,05 USD</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>XAGUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2645,34 +2645,34 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023.11.28 16:56</t>
+          <t>2023.11.28 17:06</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>24.852</t>
+          <t>2032.89</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023.11.28 16:58</t>
+          <t>2023.11.29 06:08</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>24.896</t>
+          <t>2048.69</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-22,50 USD</t>
+          <t>-174,35 USD</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2687,27 +2687,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.11.28 16:39</t>
+          <t>2023.11.28 17:53</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2028.56</t>
+          <t>2038.91</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023.11.28 16:48</t>
+          <t>2023.11.29 06:08</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2029.73</t>
+          <t>2048.71</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-12,20 USD</t>
+          <t>-49,25 USD</t>
         </is>
       </c>
     </row>
@@ -2719,37 +2719,37 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.11.28 15:32</t>
+          <t>2023.11.28 17:14</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.87858</t>
+          <t>24.921</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023.11.28 16:37</t>
+          <t>2023.11.28 17:34</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.87957</t>
+          <t>24.902</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>10,91 USD</t>
+          <t>9,00 USD</t>
         </is>
       </c>
     </row>
@@ -2761,37 +2761,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.11.28 14:51</t>
+          <t>2023.11.28 16:56</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.8799</t>
+          <t>24.852</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023.11.28 16:37</t>
+          <t>2023.11.28 16:58</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.8796</t>
+          <t>24.896</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>-3,76 USD</t>
+          <t>-22,50 USD</t>
         </is>
       </c>
     </row>
@@ -2813,123 +2813,123 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.11.28 15:44</t>
+          <t>2023.11.28 16:39</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2023.75</t>
+          <t>2028.56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023.11.28 15:53</t>
+          <t>2023.11.28 16:48</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2026.47</t>
+          <t>2029.73</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>-27,70 USD</t>
+          <t>-12,20 USD</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.11.28 15:37</t>
+          <t>2023.11.28 15:32</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024.92</t>
+          <t>0.87858</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2023.11.28 15:42</t>
+          <t>2023.11.28 16:37</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2022.98</t>
+          <t>0.87957</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>20,79 USD</t>
+          <t>10,91 USD</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.11.28 15:27</t>
+          <t>2023.11.28 14:51</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2026.65</t>
+          <t>0.8799</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2023.11.28 15:35</t>
+          <t>2023.11.28 16:37</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025.88</t>
+          <t>0.8796</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>7,92 USD</t>
+          <t>-3,76 USD</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2939,39 +2939,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.11.28 15:28</t>
+          <t>2023.11.28 15:44</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.87839</t>
+          <t>2023.75</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.11.28 15:30</t>
+          <t>2023.11.28 15:53</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.87837</t>
+          <t>2026.47</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>-0,07 USD</t>
+          <t>-27,70 USD</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2981,27 +2981,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.11.28 15:15</t>
+          <t>2023.11.28 15:37</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.26391</t>
+          <t>2024.92</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.11.28 15:24</t>
+          <t>2023.11.28 15:42</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.26567</t>
+          <t>2022.98</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>-17,95 USD</t>
+          <t>20,79 USD</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>XAGUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3023,39 +3023,39 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.11.28 14:55</t>
+          <t>2023.11.28 15:27</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>24.706</t>
+          <t>2026.65</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2023.11.28 15:04</t>
+          <t>2023.11.28 15:35</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>24.718</t>
+          <t>2025.88</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>-7,15 USD</t>
+          <t>7,92 USD</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>XAGUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3065,27 +3065,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.11.28 14:46</t>
+          <t>2023.11.28 15:28</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>24.647</t>
+          <t>0.87839</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023.11.28 14:48</t>
+          <t>2023.11.28 15:30</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>24.643</t>
+          <t>0.87837</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1,50 USD</t>
+          <t>-0,07 USD</t>
         </is>
       </c>
     </row>
@@ -3097,49 +3097,49 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.11.28 14:19</t>
+          <t>2023.11.28 15:15</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2012.85</t>
+          <t>1.26391</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023.11.28 14:26</t>
+          <t>2023.11.28 15:24</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2014.78</t>
+          <t>1.26567</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>18,80 USD</t>
+          <t>-17,95 USD</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3149,39 +3149,39 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.11.28 13:35</t>
+          <t>2023.11.28 14:55</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2015.62</t>
+          <t>24.706</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2023.11.28 13:48</t>
+          <t>2023.11.28 15:04</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2015.58</t>
+          <t>24.718</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>-0,05 USD</t>
+          <t>-7,15 USD</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3191,34 +3191,34 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.11.28 13:14</t>
+          <t>2023.11.28 14:46</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2015.4</t>
+          <t>24.647</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2023.11.28 13:18</t>
+          <t>2023.11.28 14:48</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2015.17</t>
+          <t>24.643</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0,90 USD</t>
+          <t>1,50 USD</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3228,39 +3228,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.11.28 12:47</t>
+          <t>2023.11.28 14:19</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2015.45</t>
+          <t>2012.85</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.11.28 13:01</t>
+          <t>2023.11.28 14:26</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2014.79</t>
+          <t>2014.78</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>3,05 USD</t>
+          <t>18,80 USD</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3270,39 +3270,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.11.28 12:18</t>
+          <t>2023.11.28 13:35</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2014.89</t>
+          <t>2015.62</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.11.28 12:26</t>
+          <t>2023.11.28 13:48</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2015.23</t>
+          <t>2015.58</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>3,19 USD</t>
+          <t>-0,05 USD</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3312,39 +3312,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.11.28 11:33</t>
+          <t>2023.11.28 13:14</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2014.17</t>
+          <t>2015.4</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.11.28 12:07</t>
+          <t>2023.11.28 13:18</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2015.36</t>
+          <t>2015.17</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>12,54 USD</t>
+          <t>0,90 USD</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3354,39 +3354,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.11.28 11:25</t>
+          <t>2023.11.28 12:47</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2015.05</t>
+          <t>2015.45</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.11.28 12:05</t>
+          <t>2023.11.28 13:01</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2015.11</t>
+          <t>2014.79</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0,11 USD</t>
+          <t>3,05 USD</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3401,34 +3401,34 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.11.28 11:18</t>
+          <t>2023.11.28 12:18</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2015.16</t>
+          <t>2014.89</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.11.28 11:23</t>
+          <t>2023.11.28 12:26</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2015.56</t>
+          <t>2015.23</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>3,50 USD</t>
+          <t>3,19 USD</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3438,39 +3438,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.11.28 10:32</t>
+          <t>2023.11.28 11:33</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2015.98</t>
+          <t>2014.17</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.11.28 10:34</t>
+          <t>2023.11.28 12:07</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2015.87</t>
+          <t>2015.36</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0,60 USD</t>
+          <t>12,54 USD</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3480,39 +3480,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.11.28 10:28</t>
+          <t>2023.11.28 11:25</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2015.95</t>
+          <t>2015.05</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.11.28 10:30</t>
+          <t>2023.11.28 12:05</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2015.63</t>
+          <t>2015.11</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2,70 USD</t>
+          <t>0,11 USD</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3522,39 +3522,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.11.28 10:25</t>
+          <t>2023.11.28 11:18</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2015.87</t>
+          <t>2015.16</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023.11.28 10:26</t>
+          <t>2023.11.28 11:23</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2015.57</t>
+          <t>2015.56</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2,75 USD</t>
+          <t>3,50 USD</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3569,27 +3569,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.11.28 10:15</t>
+          <t>2023.11.28 10:32</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2015.46</t>
+          <t>2015.98</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023.11.28 10:21</t>
+          <t>2023.11.28 10:34</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2016.07</t>
+          <t>2015.87</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>-4,62 USD</t>
+          <t>0,60 USD</t>
         </is>
       </c>
     </row>
@@ -3606,39 +3606,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.11.28 09:18</t>
+          <t>2023.11.28 10:28</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2013.29</t>
+          <t>2015.95</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.11.28 09:26</t>
+          <t>2023.11.28 10:30</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2014.22</t>
+          <t>2015.63</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>8,80 USD</t>
+          <t>2,70 USD</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3648,44 +3648,44 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.11.28 09:09</t>
+          <t>2023.11.28 10:25</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015.87</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023.11.28 09:26</t>
+          <t>2023.11.28 10:26</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2014.11</t>
+          <t>2015.57</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0,60 USD</t>
+          <t>2,75 USD</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3695,27 +3695,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.11.28 08:46</t>
+          <t>2023.11.28 10:15</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.60903</t>
+          <t>2015.46</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023.11.28 08:56</t>
+          <t>2023.11.28 10:21</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.60937</t>
+          <t>2016.07</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>-3,75 USD</t>
+          <t>-4,62 USD</t>
         </is>
       </c>
     </row>
@@ -3727,37 +3727,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.11.28 08:36</t>
+          <t>2023.11.28 09:18</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.60959</t>
+          <t>2013.29</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.11.28 08:42</t>
+          <t>2023.11.28 09:26</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.60927</t>
+          <t>2014.22</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2,85 USD</t>
+          <t>8,80 USD</t>
         </is>
       </c>
     </row>
@@ -3774,32 +3774,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.11.28 08:20</t>
+          <t>2023.11.28 09:09</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2015.9</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2023.11.28 08:20</t>
+          <t>2023.11.28 09:26</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2015.54</t>
+          <t>2014.11</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>3,10 USD</t>
+          <t>0,60 USD</t>
         </is>
       </c>
     </row>
@@ -3811,37 +3811,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.11.28 08:08</t>
+          <t>2023.11.28 08:46</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2016.52</t>
+          <t>0.60903</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2023.11.28 08:14</t>
+          <t>2023.11.28 08:56</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2015.99</t>
+          <t>0.60937</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>-5,80 USD</t>
+          <t>-3,75 USD</t>
         </is>
       </c>
     </row>
@@ -3853,37 +3853,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.11.28 07:59</t>
+          <t>2023.11.28 08:36</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2016.11</t>
+          <t>0.60959</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2023.11.28 08:02</t>
+          <t>2023.11.28 08:42</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2016.53</t>
+          <t>0.60927</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>3,70 USD</t>
+          <t>2,85 USD</t>
         </is>
       </c>
     </row>
@@ -3900,32 +3900,32 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.11.28 07:50</t>
+          <t>2023.11.28 08:20</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2015.65</t>
+          <t>2015.9</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2023.11.28 07:52</t>
+          <t>2023.11.28 08:20</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2016.11</t>
+          <t>2015.54</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>4,10 USD</t>
+          <t>3,10 USD</t>
         </is>
       </c>
     </row>
@@ -3947,27 +3947,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023.11.28 07:41</t>
+          <t>2023.11.28 08:08</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2015.89</t>
+          <t>2016.52</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.11.28 07:51</t>
+          <t>2023.11.28 08:14</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2015.94</t>
+          <t>2015.99</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>-5,80 USD</t>
         </is>
       </c>
     </row>
@@ -3989,27 +3989,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.11.28 07:29</t>
+          <t>2023.11.28 07:59</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2015.37</t>
+          <t>2016.11</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.11.28 07:33</t>
+          <t>2023.11.28 08:02</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2015.96</t>
+          <t>2016.53</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>5,40 USD</t>
+          <t>3,70 USD</t>
         </is>
       </c>
     </row>
@@ -4031,39 +4031,39 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.11.28 07:26</t>
+          <t>2023.11.28 07:50</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2015.77</t>
+          <t>2015.65</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023.11.28 07:33</t>
+          <t>2023.11.28 07:52</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2015.97</t>
+          <t>2016.11</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>1,50 USD</t>
+          <t>4,10 USD</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4073,34 +4073,34 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.11.28 06:44</t>
+          <t>2023.11.28 07:41</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1.90857</t>
+          <t>2015.89</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023.11.28 07:31</t>
+          <t>2023.11.28 07:51</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.90721</t>
+          <t>2015.94</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-10,41 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4115,27 +4115,27 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.11.28 07:06</t>
+          <t>2023.11.28 07:29</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2015.79</t>
+          <t>2015.37</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023.11.28 07:20</t>
+          <t>2023.11.28 07:33</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2016.74</t>
+          <t>2015.96</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>9,90 USD</t>
+          <t>5,40 USD</t>
         </is>
       </c>
     </row>
@@ -4157,34 +4157,34 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.11.28 06:49</t>
+          <t>2023.11.28 07:26</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2014.92</t>
+          <t>2015.77</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023.11.28 07:04</t>
+          <t>2023.11.28 07:33</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2015.51</t>
+          <t>2015.97</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>5,40 USD</t>
+          <t>1,50 USD</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4204,22 +4204,22 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.90849</t>
+          <t>1.90857</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023.11.28 06:44</t>
+          <t>2023.11.28 07:31</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1.90856</t>
+          <t>1.90721</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>-0,91 USD</t>
+          <t>-10,41 USD</t>
         </is>
       </c>
     </row>
@@ -4236,39 +4236,39 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.11.28 05:52</t>
+          <t>2023.11.28 07:06</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2015.49</t>
+          <t>2015.79</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023.11.28 06:41</t>
+          <t>2023.11.28 07:20</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2014.7</t>
+          <t>2016.74</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>8,14 USD</t>
+          <t>9,90 USD</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4278,44 +4278,44 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023.11.28 05:52</t>
+          <t>2023.11.28 06:49</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2015.61</t>
+          <t>2014.92</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023.11.28 06:36</t>
+          <t>2023.11.28 07:04</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2014.95</t>
+          <t>2015.51</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0,61 USD</t>
+          <t>5,40 USD</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4325,27 +4325,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.11.28 05:44</t>
+          <t>2023.11.28 06:44</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2016.44</t>
+          <t>1.90849</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023.11.28 05:48</t>
+          <t>2023.11.28 06:44</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2015.51</t>
+          <t>1.90856</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>9,68 USD</t>
+          <t>-0,91 USD</t>
         </is>
       </c>
     </row>
@@ -4367,39 +4367,39 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.11.28 05:34</t>
+          <t>2023.11.28 05:52</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2015.55</t>
+          <t>2015.49</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.11.28 05:48</t>
+          <t>2023.11.28 06:41</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2015.51</t>
+          <t>2014.7</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>-0,11 USD</t>
+          <t>8,14 USD</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4409,34 +4409,34 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.11.27 21:15</t>
+          <t>2023.11.28 05:52</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1.26275</t>
+          <t>2015.61</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.11.27 21:44</t>
+          <t>2023.11.28 06:36</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1.26309</t>
+          <t>2014.95</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>-3,75 USD</t>
+          <t>0,61 USD</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4451,34 +4451,34 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.11.27 20:38</t>
+          <t>2023.11.28 05:44</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2013.58</t>
+          <t>2016.44</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023.11.27 20:53</t>
+          <t>2023.11.28 05:48</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2012.69</t>
+          <t>2015.51</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>4,20 USD</t>
+          <t>9,68 USD</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4493,39 +4493,39 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.11.27 20:25</t>
+          <t>2023.11.28 05:34</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2012.41</t>
+          <t>2015.55</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.11.27 20:53</t>
+          <t>2023.11.28 05:48</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2012.75</t>
+          <t>2015.51</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>-3,90 USD</t>
+          <t>-0,11 USD</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>XAGUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4535,39 +4535,39 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.11.27 20:03</t>
+          <t>2023.11.27 21:15</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>24.646</t>
+          <t>1.26275</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.11.27 20:21</t>
+          <t>2023.11.27 21:44</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>24.645</t>
+          <t>1.26309</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>-3,75 USD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>XAGUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4577,27 +4577,27 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.11.27 19:40</t>
+          <t>2023.11.27 20:38</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>24.646</t>
+          <t>2013.58</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.11.27 20:00</t>
+          <t>2023.11.27 20:53</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>24.645</t>
+          <t>2012.69</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>4,20 USD</t>
         </is>
       </c>
     </row>
@@ -4619,27 +4619,27 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023.11.27 19:02</t>
+          <t>2023.11.27 20:25</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2010.67</t>
+          <t>2012.41</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2023.11.27 19:31</t>
+          <t>2023.11.27 20:53</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2012.32</t>
+          <t>2012.75</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>-17,00 USD</t>
+          <t>-3,90 USD</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4661,69 +4661,69 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2023.11.27 18:49</t>
+          <t>2023.11.27 20:03</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2010.42</t>
+          <t>24.646</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2023.11.27 18:59</t>
+          <t>2023.11.27 20:21</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2010.06</t>
+          <t>24.645</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>3,41 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>XAGUSD</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2023.11.27 15:40</t>
+          <t>2023.11.27 19:40</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2011.69</t>
+          <t>24.646</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2023.11.27 15:42</t>
+          <t>2023.11.27 20:00</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2012.07</t>
+          <t>24.645</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>3,30 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
@@ -4740,32 +4740,32 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2023.11.27 15:37</t>
+          <t>2023.11.27 19:02</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2011.72</t>
+          <t>2010.67</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2023.11.27 15:38</t>
+          <t>2023.11.27 19:31</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2011.97</t>
+          <t>2012.32</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2,00 USD</t>
+          <t>-17,00 USD</t>
         </is>
       </c>
     </row>
@@ -4782,32 +4782,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2023.11.27 15:27</t>
+          <t>2023.11.27 18:49</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2011.59</t>
+          <t>2010.42</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2023.11.27 15:28</t>
+          <t>2023.11.27 18:59</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2012.09</t>
+          <t>2010.06</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>4,95 USD</t>
+          <t>3,41 USD</t>
         </is>
       </c>
     </row>
@@ -4829,34 +4829,34 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2023.11.27 15:09</t>
+          <t>2023.11.27 15:40</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2011.76</t>
+          <t>2011.69</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2023.11.27 15:12</t>
+          <t>2023.11.27 15:42</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2011.99</t>
+          <t>2012.07</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>1,80 USD</t>
+          <t>3,30 USD</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4871,34 +4871,34 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2023.11.27 14:57</t>
+          <t>2023.11.27 15:37</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2011.62</t>
+          <t>2011.72</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2023.11.27 15:01</t>
+          <t>2023.11.27 15:38</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2011.92</t>
+          <t>2011.97</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2,75 USD</t>
+          <t>2,00 USD</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4913,34 +4913,34 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2023.11.27 14:51</t>
+          <t>2023.11.27 15:27</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2011.56</t>
+          <t>2011.59</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2023.11.27 14:52</t>
+          <t>2023.11.27 15:28</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2012.72</t>
+          <t>2012.09</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>11,10 USD</t>
+          <t>4,95 USD</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4950,32 +4950,32 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2023.11.27 14:30</t>
+          <t>2023.11.27 15:09</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2014.59</t>
+          <t>2011.76</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2023.11.27 14:34</t>
+          <t>2023.11.27 15:12</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2015.43</t>
+          <t>2011.99</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>-9,79 USD</t>
+          <t>1,80 USD</t>
         </is>
       </c>
     </row>
@@ -4992,74 +4992,74 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2023.11.27 13:18</t>
+          <t>2023.11.27 14:57</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2013.77</t>
+          <t>2011.62</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2023.11.27 13:27</t>
+          <t>2023.11.27 15:01</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2013.02</t>
+          <t>2011.92</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>7,70 USD</t>
+          <t>2,75 USD</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2023.11.27 12:38</t>
+          <t>2023.11.27 14:51</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1.72103</t>
+          <t>2011.56</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2023.11.27 12:41</t>
+          <t>2023.11.27 14:52</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>1.72071</t>
+          <t>2012.72</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2,08 USD</t>
+          <t>11,10 USD</t>
         </is>
       </c>
     </row>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5081,27 +5081,27 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2023.11.27 11:50</t>
+          <t>2023.11.27 14:30</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1.72174</t>
+          <t>2014.59</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2023.11.27 12:02</t>
+          <t>2023.11.27 14:34</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>1.72146</t>
+          <t>2015.43</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>1,76 USD</t>
+          <t>-9,79 USD</t>
         </is>
       </c>
     </row>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>GBPCAD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5123,27 +5123,27 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2023.11.27 11:28</t>
+          <t>2023.11.27 13:18</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1.72171</t>
+          <t>2013.77</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2023.11.27 11:47</t>
+          <t>2023.11.27 13:27</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1.7213</t>
+          <t>2013.02</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2,81 USD</t>
+          <t>7,70 USD</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5165,27 +5165,27 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2023.11.27 09:53</t>
+          <t>2023.11.27 12:38</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2013.58</t>
+          <t>1.72103</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2023.11.27 11:17</t>
+          <t>2023.11.27 12:41</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2012.99</t>
+          <t>1.72071</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>5,94 USD</t>
+          <t>2,08 USD</t>
         </is>
       </c>
     </row>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5207,39 +5207,39 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2023.11.27 09:55</t>
+          <t>2023.11.27 11:50</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2013.54</t>
+          <t>1.72174</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2023.11.27 11:17</t>
+          <t>2023.11.27 12:02</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2012.97</t>
+          <t>1.72146</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>5,72 USD</t>
+          <t>1,76 USD</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPCAD</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5249,27 +5249,27 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2023.11.27 09:24</t>
+          <t>2023.11.27 11:28</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2012.61</t>
+          <t>1.72171</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2023.11.27 11:16</t>
+          <t>2023.11.27 11:47</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2012.99</t>
+          <t>1.7213</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>-4,30 USD</t>
+          <t>2,81 USD</t>
         </is>
       </c>
     </row>
@@ -5291,34 +5291,34 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2023.11.27 08:52</t>
+          <t>2023.11.27 09:53</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2010.92</t>
+          <t>2013.58</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2023.11.27 09:00</t>
+          <t>2023.11.27 11:17</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2011.14</t>
+          <t>2012.99</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>-2,97 USD</t>
+          <t>5,94 USD</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5333,39 +5333,39 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2023.11.27 08:19</t>
+          <t>2023.11.27 09:55</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2010.69</t>
+          <t>2013.54</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2023.11.27 08:33</t>
+          <t>2023.11.27 11:17</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2010.14</t>
+          <t>2012.97</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>5,00 USD</t>
+          <t>5,72 USD</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5375,39 +5375,39 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2023.11.27 08:02</t>
+          <t>2023.11.27 09:24</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>1.26211</t>
+          <t>2012.61</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2023.11.27 08:07</t>
+          <t>2023.11.27 11:16</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>1.26212</t>
+          <t>2012.99</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>-0,23 USD</t>
+          <t>-4,30 USD</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5417,81 +5417,81 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2023.11.27 04:47</t>
+          <t>2023.11.27 08:52</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>1.26019</t>
+          <t>2010.92</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2023.11.27 05:16</t>
+          <t>2023.11.27 09:00</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>1.26018</t>
+          <t>2011.14</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>-0,38 USD</t>
+          <t>-2,97 USD</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>BTCUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2023.11.25 12:30</t>
+          <t>2023.11.27 08:19</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>37645.31</t>
+          <t>2010.69</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2023.11.25 12:32</t>
+          <t>2023.11.27 08:33</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>37647.9</t>
+          <t>2010.14</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>-2,13 USD</t>
+          <t>5,00 USD</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>BTCUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5501,153 +5501,153 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2023.11.25 12:29</t>
+          <t>2023.11.27 08:02</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>37641.09</t>
+          <t>1.26211</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2023.11.25 12:29</t>
+          <t>2023.11.27 08:07</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>37645.3</t>
+          <t>1.26212</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>-1,98 USD</t>
+          <t>-0,23 USD</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2023.11.24 16:09</t>
+          <t>2023.11.27 04:47</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2002.54</t>
+          <t>1.26019</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2023.11.24 16:21</t>
+          <t>2023.11.27 05:16</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2001.16</t>
+          <t>1.26018</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>-8,58 USD</t>
+          <t>-0,38 USD</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>BTCUSD</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2023.11.24 15:59</t>
+          <t>2023.11.25 12:30</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2001.19</t>
+          <t>37645.31</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2023.11.24 16:03</t>
+          <t>2023.11.25 12:32</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2003.47</t>
+          <t>37647.9</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>-13,98 USD</t>
+          <t>-2,13 USD</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>BTCUSD</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2023.11.24 15:57</t>
+          <t>2023.11.25 12:29</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2001.22</t>
+          <t>37641.09</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2023.11.24 15:58</t>
+          <t>2023.11.25 12:29</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2001.55</t>
+          <t>37645.3</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>1,68 USD</t>
+          <t>-1,98 USD</t>
         </is>
       </c>
     </row>
@@ -5664,39 +5664,39 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2023.11.24 15:54</t>
+          <t>2023.11.24 16:09</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2000.81</t>
+          <t>2002.54</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2023.11.24 15:55</t>
+          <t>2023.11.24 16:21</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2001.04</t>
+          <t>2001.16</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>-1,68 USD</t>
+          <t>-8,58 USD</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5711,27 +5711,27 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2023.11.24 15:47</t>
+          <t>2023.11.24 15:59</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>2000.9</t>
+          <t>2001.19</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2023.11.24 15:53</t>
+          <t>2023.11.24 16:03</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2000.56</t>
+          <t>2003.47</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2,03 USD</t>
+          <t>-13,98 USD</t>
         </is>
       </c>
     </row>
@@ -5748,39 +5748,39 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2023.11.24 15:45</t>
+          <t>2023.11.24 15:57</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>2000.37</t>
+          <t>2001.22</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2023.11.24 15:46</t>
+          <t>2023.11.24 15:58</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2000.15</t>
+          <t>2001.55</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>1,02 USD</t>
+          <t>1,68 USD</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5795,34 +5795,34 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2023.11.24 15:41</t>
+          <t>2023.11.24 15:54</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2002.58</t>
+          <t>2000.81</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2023.11.24 15:43</t>
+          <t>2023.11.24 15:55</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2001.82</t>
+          <t>2001.04</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>3,55 USD</t>
+          <t>-1,68 USD</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5837,34 +5837,34 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2023.11.24 15:31</t>
+          <t>2023.11.24 15:47</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2001.79</t>
+          <t>2000.9</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2023.11.24 15:31</t>
+          <t>2023.11.24 15:53</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2002.78</t>
+          <t>2000.56</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>-5,20 USD</t>
+          <t>2,03 USD</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5879,27 +5879,27 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2023.11.24 15:19</t>
+          <t>2023.11.24 15:45</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2001.09</t>
+          <t>2000.37</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2023.11.24 15:20</t>
+          <t>2023.11.24 15:46</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2001.23</t>
+          <t>2000.15</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>-0,95 USD</t>
+          <t>1,02 USD</t>
         </is>
       </c>
     </row>
@@ -5916,39 +5916,39 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2023.11.24 08:52</t>
+          <t>2023.11.24 15:41</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>1993.46</t>
+          <t>2002.58</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2023.11.24 09:21</t>
+          <t>2023.11.24 15:43</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>1993.67</t>
+          <t>2001.82</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>0,80 USD</t>
+          <t>3,55 USD</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5958,44 +5958,44 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2023.11.23 10:32</t>
+          <t>2023.11.24 15:31</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>1993.05</t>
+          <t>2001.79</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2023.11.23 14:54</t>
+          <t>2023.11.24 15:31</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>1993.08</t>
+          <t>2002.78</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>-0,14 USD</t>
+          <t>-5,20 USD</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6005,34 +6005,34 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2023.11.23 04:29</t>
+          <t>2023.11.24 15:19</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>186.56</t>
+          <t>2001.09</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2023.11.23 10:30</t>
+          <t>2023.11.24 15:20</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>187.705</t>
+          <t>2001.23</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>-23,15 USD</t>
+          <t>-0,95 USD</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -6047,34 +6047,34 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2023.11.23 09:06</t>
+          <t>2023.11.24 08:52</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>1995.03</t>
+          <t>1993.46</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2023.11.23 09:08</t>
+          <t>2023.11.24 09:21</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>1995.08</t>
+          <t>1993.67</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>0,00 USD</t>
+          <t>0,80 USD</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6084,39 +6084,39 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2023.11.23 05:00</t>
+          <t>2023.11.23 10:32</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>1997.74</t>
+          <t>1993.05</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2023.11.23 05:27</t>
+          <t>2023.11.23 14:54</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>1996.49</t>
+          <t>1993.08</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>3,60 USD</t>
+          <t>-0,14 USD</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6131,34 +6131,34 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2023.11.23 04:28</t>
+          <t>2023.11.23 04:29</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>186.561</t>
+          <t>186.56</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2023.11.23 04:28</t>
+          <t>2023.11.23 10:30</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>186.562</t>
+          <t>187.705</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>-0,37 USD</t>
+          <t>-23,15 USD</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6168,27 +6168,27 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2023.11.23 03:52</t>
+          <t>2023.11.23 09:06</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>1993.95</t>
+          <t>1995.03</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2023.11.23 04:27</t>
+          <t>2023.11.23 09:08</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>1993.9</t>
+          <t>1995.08</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6200,7 +6200,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6210,44 +6210,44 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2023.11.23 03:34</t>
+          <t>2023.11.23 05:00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1994.23</t>
+          <t>1997.74</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2023.11.23 03:44</t>
+          <t>2023.11.23 05:27</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>1993.99</t>
+          <t>1996.49</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>-3,19 USD</t>
+          <t>3,60 USD</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6257,39 +6257,39 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2023.11.22 21:20</t>
+          <t>2023.11.23 04:28</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1990.3</t>
+          <t>186.561</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2023.11.22 22:17</t>
+          <t>2023.11.23 04:28</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>1989.91</t>
+          <t>186.562</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>3,74 USD</t>
+          <t>-0,37 USD</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ETHUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6299,34 +6299,34 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2023.11.22 21:11</t>
+          <t>2023.11.23 03:52</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>2073.6</t>
+          <t>1993.95</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2023.11.22 21:21</t>
+          <t>2023.11.23 04:27</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2076.02</t>
+          <t>1993.9</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>-0,54 USD</t>
+          <t>0,00 USD</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6336,39 +6336,39 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2023.11.22 20:18</t>
+          <t>2023.11.23 03:34</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1989.73</t>
+          <t>1994.23</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2023.11.22 21:07</t>
+          <t>2023.11.23 03:44</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>1991.4</t>
+          <t>1993.99</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>-12,04 USD</t>
+          <t>-3,19 USD</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6378,32 +6378,32 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2023.11.22 19:59</t>
+          <t>2023.11.22 21:20</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1988.4</t>
+          <t>1990.3</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2023.11.22 20:06</t>
+          <t>2023.11.22 22:17</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>1989.87</t>
+          <t>1989.91</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>7,10 USD</t>
+          <t>3,74 USD</t>
         </is>
       </c>
     </row>
@@ -6415,44 +6415,44 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>ETHUSD</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2023.11.22 16:55</t>
+          <t>2023.11.22 21:11</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1995.4</t>
+          <t>2073.6</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2023.11.22 17:21</t>
+          <t>2023.11.22 21:21</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>1991.96</t>
+          <t>2076.02</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>-38,39 USD</t>
+          <t>-0,54 USD</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6462,39 +6462,39 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2023.11.22 17:00</t>
+          <t>2023.11.22 20:18</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1995.05</t>
+          <t>1989.73</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2023.11.22 17:21</t>
+          <t>2023.11.22 21:07</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>1991.94</t>
+          <t>1991.4</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>-34,76 USD</t>
+          <t>-12,04 USD</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6509,34 +6509,34 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2023.11.22 16:49</t>
+          <t>2023.11.22 19:59</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1994.43</t>
+          <t>1988.4</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2023.11.22 16:54</t>
+          <t>2023.11.22 20:06</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>1995.4</t>
+          <t>1989.87</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>10,12 USD</t>
+          <t>7,10 USD</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6546,32 +6546,32 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2023.11.22 16:31</t>
+          <t>2023.11.22 16:55</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>1991.25</t>
+          <t>1995.4</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2023.11.22 16:33</t>
+          <t>2023.11.22 17:21</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>1991.03</t>
+          <t>1991.96</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>1,70 USD</t>
+          <t>-38,39 USD</t>
         </is>
       </c>
     </row>
@@ -6588,32 +6588,32 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2023.11.22 16:26</t>
+          <t>2023.11.22 17:00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>1991.45</t>
+          <t>1995.05</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2023.11.22 16:27</t>
+          <t>2023.11.22 17:21</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>1990.42</t>
+          <t>1991.94</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>10,78 USD</t>
+          <t>-34,76 USD</t>
         </is>
       </c>
     </row>
@@ -6630,39 +6630,39 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2023.11.22 16:21</t>
+          <t>2023.11.22 16:49</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1993.02</t>
+          <t>1994.43</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2023.11.22 16:23</t>
+          <t>2023.11.22 16:54</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>1991.91</t>
+          <t>1995.4</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>11,66 USD</t>
+          <t>10,12 USD</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6677,27 +6677,27 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2023.11.22 16:17</t>
+          <t>2023.11.22 16:31</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1994.42</t>
+          <t>1991.25</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2023.11.22 16:19</t>
+          <t>2023.11.22 16:33</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>1992.98</t>
+          <t>1991.03</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>15,29 USD</t>
+          <t>1,70 USD</t>
         </is>
       </c>
     </row>
@@ -6719,27 +6719,27 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2023.11.22 16:11</t>
+          <t>2023.11.22 16:26</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1993.01</t>
+          <t>1991.45</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2023.11.22 16:12</t>
+          <t>2023.11.22 16:27</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>1992.63</t>
+          <t>1990.42</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>3,63 USD</t>
+          <t>10,78 USD</t>
         </is>
       </c>
     </row>
@@ -6756,32 +6756,32 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2023.11.22 16:08</t>
+          <t>2023.11.22 16:21</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1996.62</t>
+          <t>1993.02</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2023.11.22 16:10</t>
+          <t>2023.11.22 16:23</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>1994.79</t>
+          <t>1991.91</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>-20,68 USD</t>
+          <t>11,66 USD</t>
         </is>
       </c>
     </row>
@@ -6803,27 +6803,27 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2023.11.22 16:02</t>
+          <t>2023.11.22 16:17</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>1997.12</t>
+          <t>1994.42</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2023.11.22 16:03</t>
+          <t>2023.11.22 16:19</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>1997.71</t>
+          <t>1992.98</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>-7,04 USD</t>
+          <t>15,29 USD</t>
         </is>
       </c>
     </row>
@@ -6845,27 +6845,27 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2023.11.22 16:01</t>
+          <t>2023.11.22 16:11</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1998.76</t>
+          <t>1993.01</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2023.11.22 16:02</t>
+          <t>2023.11.22 16:12</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>1998.43</t>
+          <t>1992.63</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>3,08 USD</t>
+          <t>3,63 USD</t>
         </is>
       </c>
     </row>
@@ -6882,39 +6882,39 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2023.11.22 15:41</t>
+          <t>2023.11.22 16:08</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>2001.22</t>
+          <t>1996.62</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2023.11.22 16:00</t>
+          <t>2023.11.22 16:10</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1999.6</t>
+          <t>1994.79</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>17,27 USD</t>
+          <t>-20,68 USD</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -6929,27 +6929,27 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2023.11.22 14:50</t>
+          <t>2023.11.22 16:02</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>1997.73</t>
+          <t>1997.12</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2023.11.22 15:37</t>
+          <t>2023.11.22 16:03</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2001.84</t>
+          <t>1997.71</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>-62,40 USD</t>
+          <t>-7,04 USD</t>
         </is>
       </c>
     </row>
@@ -6971,27 +6971,27 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2023.11.22 14:57</t>
+          <t>2023.11.22 16:01</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>1999.19</t>
+          <t>1998.76</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2023.11.22 15:37</t>
+          <t>2023.11.22 16:02</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2002.12</t>
+          <t>1998.43</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>-32,78 USD</t>
+          <t>3,08 USD</t>
         </is>
       </c>
     </row>
@@ -7013,27 +7013,27 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2023.11.22 14:47</t>
+          <t>2023.11.22 15:41</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>1999.03</t>
+          <t>2001.22</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2023.11.22 14:49</t>
+          <t>2023.11.22 16:00</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>1998.31</t>
+          <t>1999.6</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>7,37 USD</t>
+          <t>17,27 USD</t>
         </is>
       </c>
     </row>
@@ -7055,27 +7055,27 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2023.11.22 14:33</t>
+          <t>2023.11.22 14:50</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>1999.58</t>
+          <t>1997.73</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2023.11.22 14:46</t>
+          <t>2023.11.22 15:37</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>1999.6</t>
+          <t>2001.84</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>-1,05 USD</t>
+          <t>-62,40 USD</t>
         </is>
       </c>
     </row>
@@ -7092,39 +7092,39 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2023.11.22 14:02</t>
+          <t>2023.11.22 14:57</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2002.55</t>
+          <t>1999.19</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2023.11.22 14:32</t>
+          <t>2023.11.22 15:37</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>1998.51</t>
+          <t>2002.12</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>-44,99 USD</t>
+          <t>-32,78 USD</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -7134,39 +7134,39 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2023.11.22 14:12</t>
+          <t>2023.11.22 14:47</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>2001.06</t>
+          <t>1999.03</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2023.11.22 14:32</t>
+          <t>2023.11.22 14:49</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>1999.7</t>
+          <t>1998.31</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>-21,15 USD</t>
+          <t>7,37 USD</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -7181,27 +7181,27 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2023.11.22 13:21</t>
+          <t>2023.11.22 14:33</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>2001.34</t>
+          <t>1999.58</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2023.11.22 13:22</t>
+          <t>2023.11.22 14:46</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2002.1</t>
+          <t>1999.6</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>-8,91 USD</t>
+          <t>-1,05 USD</t>
         </is>
       </c>
     </row>
@@ -7223,81 +7223,81 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2023.11.22 12:45</t>
+          <t>2023.11.22 14:02</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>2002.23</t>
+          <t>2002.55</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2023.11.22 13:16</t>
+          <t>2023.11.22 14:32</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2002.34</t>
+          <t>1998.51</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>0,66 USD</t>
+          <t>-44,99 USD</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2023.11.22 12:31</t>
+          <t>2023.11.22 14:12</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>148.788</t>
+          <t>2001.06</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2023.11.22 12:37</t>
+          <t>2023.11.22 14:32</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>148.87</t>
+          <t>1999.7</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>-6,45 USD</t>
+          <t>-21,15 USD</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7307,34 +7307,34 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2023.11.22 12:32</t>
+          <t>2023.11.22 13:21</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>186.47</t>
+          <t>2001.34</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2023.11.22 12:37</t>
+          <t>2023.11.22 13:22</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>186.496</t>
+          <t>2002.1</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>-2,64 USD</t>
+          <t>-8,91 USD</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -7349,27 +7349,27 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2023.11.22 12:27</t>
+          <t>2023.11.22 12:45</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>2003.02</t>
+          <t>2002.23</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2023.11.22 12:28</t>
+          <t>2023.11.22 13:16</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2002.9</t>
+          <t>2002.34</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>-2,55 USD</t>
+          <t>0,66 USD</t>
         </is>
       </c>
     </row>
@@ -7381,49 +7381,49 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2023.11.22 11:19</t>
+          <t>2023.11.22 12:31</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>2000.84</t>
+          <t>148.788</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2023.11.22 12:10</t>
+          <t>2023.11.22 12:37</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2002.12</t>
+          <t>148.87</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>13,53 USD</t>
+          <t>-6,45 USD</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7433,27 +7433,27 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2023.11.22 11:05</t>
+          <t>2023.11.22 12:32</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>2002.24</t>
+          <t>186.47</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2023.11.22 11:09</t>
+          <t>2023.11.22 12:37</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2001.54</t>
+          <t>186.496</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>9,10 USD</t>
+          <t>-2,64 USD</t>
         </is>
       </c>
     </row>
@@ -7470,32 +7470,32 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2023.11.22 11:00</t>
+          <t>2023.11.22 12:27</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>2002.06</t>
+          <t>2003.02</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2023.11.22 11:01</t>
+          <t>2023.11.22 12:28</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2001.83</t>
+          <t>2002.9</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2,70 USD</t>
+          <t>-2,55 USD</t>
         </is>
       </c>
     </row>
@@ -7512,39 +7512,39 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2023.11.22 10:50</t>
+          <t>2023.11.22 11:19</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>2003.29</t>
+          <t>2000.84</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2023.11.22 10:52</t>
+          <t>2023.11.22 12:10</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2003.01</t>
+          <t>2002.12</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2,53 USD</t>
+          <t>13,53 USD</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -7554,39 +7554,39 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2023.11.22 10:32</t>
+          <t>2023.11.22 11:05</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>2001.66</t>
+          <t>2002.24</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2023.11.22 10:46</t>
+          <t>2023.11.22 11:09</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2002.99</t>
+          <t>2001.54</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>14,08 USD</t>
+          <t>9,10 USD</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -7596,39 +7596,39 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2023.11.22 10:31</t>
+          <t>2023.11.22 11:00</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>2001.11</t>
+          <t>2002.06</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2023.11.22 10:33</t>
+          <t>2023.11.22 11:01</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2001.25</t>
+          <t>2001.83</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>0,99 USD</t>
+          <t>2,70 USD</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -7638,39 +7638,39 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2023.11.22 09:53</t>
+          <t>2023.11.22 10:50</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>2000.59</t>
+          <t>2003.29</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2023.11.22 10:21</t>
+          <t>2023.11.22 10:52</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>1999.36</t>
+          <t>2003.01</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>-19,20 USD</t>
+          <t>2,53 USD</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -7685,34 +7685,34 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2023.11.22 09:33</t>
+          <t>2023.11.22 10:32</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>2001.72</t>
+          <t>2001.66</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2023.11.22 10:12</t>
+          <t>2023.11.22 10:46</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2001.79</t>
+          <t>2002.99</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>0,24 USD</t>
+          <t>14,08 USD</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -7722,39 +7722,39 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2023.11.22 08:59</t>
+          <t>2023.11.22 10:31</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>2004.02</t>
+          <t>2001.11</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2023.11.22 09:28</t>
+          <t>2023.11.22 10:33</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2002.49</t>
+          <t>2001.25</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>22,20 USD</t>
+          <t>0,99 USD</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -7764,39 +7764,39 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2023.11.22 08:27</t>
+          <t>2023.11.22 09:53</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>2002.88</t>
+          <t>2000.59</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2023.11.22 09:04</t>
+          <t>2023.11.22 10:21</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2004.67</t>
+          <t>1999.36</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>-20,24 USD</t>
+          <t>-19,20 USD</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7806,39 +7806,39 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2023.11.22 08:17</t>
+          <t>2023.11.22 09:33</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>2001.98</t>
+          <t>2001.72</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2023.11.22 09:04</t>
+          <t>2023.11.22 10:12</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2004.47</t>
+          <t>2001.79</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>-27,94 USD</t>
+          <t>0,24 USD</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7853,27 +7853,27 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2023.11.22 08:03</t>
+          <t>2023.11.22 08:59</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>2000.31</t>
+          <t>2004.02</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2023.11.22 08:09</t>
+          <t>2023.11.22 09:28</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2001.98</t>
+          <t>2002.49</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>-18,92 USD</t>
+          <t>22,20 USD</t>
         </is>
       </c>
     </row>
@@ -7885,37 +7885,37 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2023.11.22 07:41</t>
+          <t>2023.11.22 08:27</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>186.439</t>
+          <t>2002.88</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2023.11.22 07:48</t>
+          <t>2023.11.22 09:04</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>186.477</t>
+          <t>2004.67</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2,31 USD</t>
+          <t>-20,24 USD</t>
         </is>
       </c>
     </row>
@@ -7927,7 +7927,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7937,27 +7937,27 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2023.11.22 05:08</t>
+          <t>2023.11.22 08:17</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>1.25361</t>
+          <t>2001.98</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2023.11.22 07:36</t>
+          <t>2023.11.22 09:04</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>1.25151</t>
+          <t>2004.47</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>22,71 USD</t>
+          <t>-27,94 USD</t>
         </is>
       </c>
     </row>
@@ -7979,27 +7979,27 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2023.11.22 06:33</t>
+          <t>2023.11.22 08:03</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>1997.92</t>
+          <t>2000.31</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2023.11.22 07:16</t>
+          <t>2023.11.22 08:09</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>1999.76</t>
+          <t>2001.98</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>-20,79 USD</t>
+          <t>-18,92 USD</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8021,27 +8021,27 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2023.11.22 05:52</t>
+          <t>2023.11.22 07:41</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>1999.76</t>
+          <t>186.439</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2023.11.22 06:31</t>
+          <t>2023.11.22 07:48</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>1998.83</t>
+          <t>186.477</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>-10,78 USD</t>
+          <t>2,31 USD</t>
         </is>
       </c>
     </row>
@@ -8053,37 +8053,37 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2023.11.22 05:58</t>
+          <t>2023.11.22 05:08</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>1999.42</t>
+          <t>1.25361</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2023.11.22 06:31</t>
+          <t>2023.11.22 07:36</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>1998.94</t>
+          <t>1.25151</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>-5,83 USD</t>
+          <t>22,71 USD</t>
         </is>
       </c>
     </row>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8105,34 +8105,34 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2023.11.21 21:05</t>
+          <t>2023.11.22 06:33</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>0.60505</t>
+          <t>1997.92</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2023.11.21 21:07</t>
+          <t>2023.11.22 07:16</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>0.60509</t>
+          <t>1999.76</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>-0,83 USD</t>
+          <t>-20,79 USD</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -8142,32 +8142,32 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2023.11.21 20:18</t>
+          <t>2023.11.22 05:52</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>1998.74</t>
+          <t>1999.76</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2023.11.21 21:02</t>
+          <t>2023.11.22 06:31</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>1999.92</t>
+          <t>1998.83</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>-18,45 USD</t>
+          <t>-10,78 USD</t>
         </is>
       </c>
     </row>
@@ -8179,7 +8179,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8189,27 +8189,27 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2023.11.21 20:04</t>
+          <t>2023.11.22 05:58</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>0.89774</t>
+          <t>1999.42</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2023.11.21 20:06</t>
+          <t>2023.11.22 06:31</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>0.89741</t>
+          <t>1998.94</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>-3,15 USD</t>
+          <t>-5,83 USD</t>
         </is>
       </c>
     </row>
@@ -8221,44 +8221,44 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2023.11.21 17:41</t>
+          <t>2023.11.21 21:05</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>0.89872</t>
+          <t>0.60505</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2023.11.21 18:20</t>
+          <t>2023.11.21 21:07</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>0.89888</t>
+          <t>0.60509</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>0,79 USD</t>
+          <t>-0,83 USD</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -8273,27 +8273,27 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2023.11.21 15:31</t>
+          <t>2023.11.21 20:18</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>2002.87</t>
+          <t>1998.74</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2023.11.21 17:26</t>
+          <t>2023.11.21 21:02</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2000.1</t>
+          <t>1999.92</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>29,92 USD</t>
+          <t>-18,45 USD</t>
         </is>
       </c>
     </row>
@@ -8305,37 +8305,37 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2023.11.21 15:27</t>
+          <t>2023.11.21 20:04</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>2001.44</t>
+          <t>0.89774</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2023.11.21 17:24</t>
+          <t>2023.11.21 20:06</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2001.05</t>
+          <t>0.89741</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>3,74 USD</t>
+          <t>-3,15 USD</t>
         </is>
       </c>
     </row>
@@ -8347,37 +8347,37 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2023.11.21 15:11</t>
+          <t>2023.11.21 17:41</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>1999.04</t>
+          <t>0.89872</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2023.11.21 15:26</t>
+          <t>2023.11.21 18:20</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2000.71</t>
+          <t>0.89888</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>-18,92 USD</t>
+          <t>0,79 USD</t>
         </is>
       </c>
     </row>
@@ -8399,27 +8399,27 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2023.11.21 15:05</t>
+          <t>2023.11.21 15:31</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>1997.49</t>
+          <t>2002.87</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2023.11.21 15:07</t>
+          <t>2023.11.21 17:26</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>1999.28</t>
+          <t>2000.1</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>-20,24 USD</t>
+          <t>29,92 USD</t>
         </is>
       </c>
     </row>
@@ -8441,27 +8441,27 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2023.11.21 14:31</t>
+          <t>2023.11.21 15:27</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>1998.53</t>
+          <t>2001.44</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2023.11.21 14:46</t>
+          <t>2023.11.21 17:24</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>1993.89</t>
+          <t>2001.05</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>50,49 USD</t>
+          <t>3,74 USD</t>
         </is>
       </c>
     </row>
@@ -8483,27 +8483,27 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2023.11.21 14:27</t>
+          <t>2023.11.21 15:11</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>1995.25</t>
+          <t>1999.04</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2023.11.21 14:46</t>
+          <t>2023.11.21 15:26</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>1993.87</t>
+          <t>2000.71</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>14,63 USD</t>
+          <t>-18,92 USD</t>
         </is>
       </c>
     </row>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -8525,27 +8525,27 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2023.11.21 14:25</t>
+          <t>2023.11.21 15:05</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>0.90307</t>
+          <t>1997.49</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2023.11.21 14:42</t>
+          <t>2023.11.21 15:07</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>0.90069</t>
+          <t>1999.28</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>18,61 USD</t>
+          <t>-20,24 USD</t>
         </is>
       </c>
     </row>
@@ -8557,7 +8557,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -8567,27 +8567,27 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2023.11.21 14:19</t>
+          <t>2023.11.21 14:31</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>0.90289</t>
+          <t>1998.53</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2023.11.21 14:21</t>
+          <t>2023.11.21 14:46</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>0.90303</t>
+          <t>1993.89</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>-1,62 USD</t>
+          <t>50,49 USD</t>
         </is>
       </c>
     </row>
@@ -8599,7 +8599,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -8609,27 +8609,27 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2023.11.21 12:55</t>
+          <t>2023.11.21 14:27</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>0.90093</t>
+          <t>1995.25</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2023.11.21 13:03</t>
+          <t>2023.11.21 14:46</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>0.90076</t>
+          <t>1993.87</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>0,86 USD</t>
+          <t>14,63 USD</t>
         </is>
       </c>
     </row>
@@ -8641,37 +8641,37 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2023.11.21 12:37</t>
+          <t>2023.11.21 14:25</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>1988.92</t>
+          <t>0.90307</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2023.11.21 12:41</t>
+          <t>2023.11.21 14:42</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>1988.32</t>
+          <t>0.90069</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>-7,15 USD</t>
+          <t>18,61 USD</t>
         </is>
       </c>
     </row>
@@ -8683,91 +8683,91 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>GBPNZD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2023.11.21 11:01</t>
+          <t>2023.11.21 14:19</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>2.06738</t>
+          <t>0.90289</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2023.11.21 11:20</t>
+          <t>2023.11.21 14:21</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2.06665</t>
+          <t>0.90303</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>-5,37 USD</t>
+          <t>-1,62 USD</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>GBPNZD</t>
+          <t>AUDCAD</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2023.11.21 09:38</t>
+          <t>2023.11.21 12:55</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>2.06007</t>
+          <t>0.90093</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2023.11.21 10:52</t>
+          <t>2023.11.21 13:03</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2.06702</t>
+          <t>0.90076</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>62,54 USD</t>
+          <t>0,86 USD</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>GBPNZD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8777,34 +8777,34 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2023.11.21 09:19</t>
+          <t>2023.11.21 12:37</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>2.06318</t>
+          <t>1988.92</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2023.11.21 09:33</t>
+          <t>2023.11.21 12:41</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2.05984</t>
+          <t>1988.32</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>-43,63 USD</t>
+          <t>-7,15 USD</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -8819,27 +8819,27 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2023.11.21 08:48</t>
+          <t>2023.11.21 11:01</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>2.06454</t>
+          <t>2.06738</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2023.11.21 09:03</t>
+          <t>2023.11.21 11:20</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2.06353</t>
+          <t>2.06665</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>-9,88 USD</t>
+          <t>-5,37 USD</t>
         </is>
       </c>
     </row>
@@ -8851,35 +8851,161 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GBPNZD</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
+          <t>2023.11.21 09:38</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>2.06007</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2023.11.21 10:52</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2.06702</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>62,54 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>GBPNZD</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023.11.21 09:19</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>2.06318</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2023.11.21 09:33</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>2.05984</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>-43,63 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>GBPNZD</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023.11.21 08:48</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2.06454</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2023.11.21 09:03</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>2.06353</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>-9,88 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>GOLD</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
           <t>2023.11.21 07:18</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>1990.73</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>2023.11.21 08:31</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>1992.87</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
+      <c r="H204" t="inlineStr">
         <is>
           <t>-32,85 USD</t>
         </is>
